--- a/EAula06ex2PlanilhaDuplicata.xlsx
+++ b/EAula06ex2PlanilhaDuplicata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B2BF94-4FC8-469F-9199-7975E8232856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A391B8-845C-4268-8037-218CF01428A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="2" r:id="rId1"/>
@@ -56,19 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
-  <si>
-    <t>Perfil A</t>
-  </si>
-  <si>
-    <t>Perfil B</t>
-  </si>
-  <si>
-    <t>Tempo (s)</t>
-  </si>
-  <si>
-    <t>Umidade (kg/kg db)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>tempo</t>
   </si>
@@ -98,6 +86,18 @@
   </si>
   <si>
     <t>R²</t>
+  </si>
+  <si>
+    <t>Tempo_A</t>
+  </si>
+  <si>
+    <t>Umidade_A</t>
+  </si>
+  <si>
+    <t>Tempo_B</t>
+  </si>
+  <si>
+    <t>Umidade_B</t>
   </si>
 </sst>
 </file>
@@ -4393,4421 +4393,4407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D315"/>
+  <dimension ref="A1:D314"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.4313517339999997</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5.2663847779999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>1.0469999999999999</v>
+        <v>115.875</v>
       </c>
       <c r="B3" s="2">
-        <v>5.4313517339999997</v>
+        <v>5.2367303610000002</v>
       </c>
       <c r="C3" s="2">
-        <v>1.0780000000000001</v>
+        <v>114.218</v>
       </c>
       <c r="D3" s="2">
-        <v>5.2663847779999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.1226215640000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>115.875</v>
+        <v>188.64</v>
       </c>
       <c r="B4" s="2">
-        <v>5.2367303610000002</v>
+        <v>5.1659589529999996</v>
       </c>
       <c r="C4" s="2">
-        <v>114.218</v>
+        <v>184.23400000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>5.1226215640000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.9788583510000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>188.64</v>
+        <v>250.56200000000001</v>
       </c>
       <c r="B5" s="2">
-        <v>5.1659589529999996</v>
+        <v>5.086341118</v>
       </c>
       <c r="C5" s="2">
-        <v>184.23400000000001</v>
+        <v>246.375</v>
       </c>
       <c r="D5" s="2">
-        <v>4.9788583510000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.885835095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>250.56200000000001</v>
+        <v>312.23399999999998</v>
       </c>
       <c r="B6" s="2">
-        <v>5.086341118</v>
+        <v>5.0067232840000004</v>
       </c>
       <c r="C6" s="2">
-        <v>246.375</v>
+        <v>308</v>
       </c>
       <c r="D6" s="2">
-        <v>4.885835095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.7758985200000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>312.23399999999998</v>
+        <v>373.85899999999998</v>
       </c>
       <c r="B7" s="2">
-        <v>5.0067232840000004</v>
+        <v>4.9447983009999996</v>
       </c>
       <c r="C7" s="2">
-        <v>308</v>
+        <v>369.54700000000003</v>
       </c>
       <c r="D7" s="2">
-        <v>4.7758985200000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.7420718820000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>373.85899999999998</v>
+        <v>435.31200000000001</v>
       </c>
       <c r="B8" s="2">
-        <v>4.9447983009999996</v>
+        <v>4.8209483369999999</v>
       </c>
       <c r="C8" s="2">
-        <v>369.54700000000003</v>
+        <v>430.93700000000001</v>
       </c>
       <c r="D8" s="2">
-        <v>4.7420718820000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.6997885840000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>435.31200000000001</v>
+        <v>497.01499999999999</v>
       </c>
       <c r="B9" s="2">
-        <v>4.8209483369999999</v>
+        <v>4.7236376499999997</v>
       </c>
       <c r="C9" s="2">
-        <v>430.93700000000001</v>
+        <v>492.70299999999997</v>
       </c>
       <c r="D9" s="2">
-        <v>4.6997885840000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.6236786470000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>497.01499999999999</v>
+        <v>558.48400000000004</v>
       </c>
       <c r="B10" s="2">
-        <v>4.7236376499999997</v>
+        <v>4.6705590939999997</v>
       </c>
       <c r="C10" s="2">
-        <v>492.70299999999997</v>
+        <v>554.15599999999995</v>
       </c>
       <c r="D10" s="2">
-        <v>4.6236786470000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5306553909999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>558.48400000000004</v>
+        <v>620.03099999999995</v>
       </c>
       <c r="B11" s="2">
-        <v>4.6705590939999997</v>
+        <v>4.5732484080000004</v>
       </c>
       <c r="C11" s="2">
-        <v>554.15599999999995</v>
+        <v>615.65599999999995</v>
       </c>
       <c r="D11" s="2">
-        <v>4.5306553909999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.463002114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>620.03099999999995</v>
+        <v>681.56200000000001</v>
       </c>
       <c r="B12" s="2">
-        <v>4.5732484080000004</v>
+        <v>4.4847841470000001</v>
       </c>
       <c r="C12" s="2">
-        <v>615.65599999999995</v>
+        <v>677.28099999999995</v>
       </c>
       <c r="D12" s="2">
-        <v>4.463002114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.3868921780000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>681.56200000000001</v>
+        <v>743.09400000000005</v>
       </c>
       <c r="B13" s="2">
-        <v>4.4847841470000001</v>
+        <v>4.4228591650000002</v>
       </c>
       <c r="C13" s="2">
-        <v>677.28099999999995</v>
+        <v>738.76499999999999</v>
       </c>
       <c r="D13" s="2">
-        <v>4.3868921780000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.2938689219999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>743.09400000000005</v>
+        <v>804.48400000000004</v>
       </c>
       <c r="B14" s="2">
-        <v>4.4228591650000002</v>
+        <v>4.3520877569999996</v>
       </c>
       <c r="C14" s="2">
-        <v>738.76499999999999</v>
+        <v>800.21799999999996</v>
       </c>
       <c r="D14" s="2">
-        <v>4.2938689219999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.2262156449999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>804.48400000000004</v>
+        <v>866.32799999999997</v>
       </c>
       <c r="B15" s="2">
-        <v>4.3520877569999996</v>
+        <v>4.2370842179999997</v>
       </c>
       <c r="C15" s="2">
-        <v>800.21799999999996</v>
+        <v>861.59299999999996</v>
       </c>
       <c r="D15" s="2">
-        <v>4.2262156449999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.1331923890000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>866.32799999999997</v>
+        <v>927.73400000000004</v>
       </c>
       <c r="B16" s="2">
-        <v>4.2370842179999997</v>
+        <v>4.2016985140000003</v>
       </c>
       <c r="C16" s="2">
-        <v>861.59299999999996</v>
+        <v>923.14</v>
       </c>
       <c r="D16" s="2">
-        <v>4.1331923890000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0655391119999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>927.73400000000004</v>
+        <v>989.23400000000004</v>
       </c>
       <c r="B17" s="2">
-        <v>4.2016985140000003</v>
+        <v>4.1220806789999997</v>
       </c>
       <c r="C17" s="2">
-        <v>923.14</v>
+        <v>984.51499999999999</v>
       </c>
       <c r="D17" s="2">
-        <v>4.0655391119999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.9725158559999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>989.23400000000004</v>
+        <v>1050.9839999999999</v>
       </c>
       <c r="B18" s="2">
-        <v>4.1220806789999997</v>
+        <v>4.051309271</v>
       </c>
       <c r="C18" s="2">
-        <v>984.51499999999999</v>
+        <v>1045.8589999999999</v>
       </c>
       <c r="D18" s="2">
-        <v>3.9725158559999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.8964059199999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>1050.9839999999999</v>
+        <v>1112.5940000000001</v>
       </c>
       <c r="B19" s="2">
-        <v>4.051309271</v>
+        <v>3.9805378629999999</v>
       </c>
       <c r="C19" s="2">
-        <v>1045.8589999999999</v>
+        <v>1107.703</v>
       </c>
       <c r="D19" s="2">
-        <v>3.8964059199999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.8372093020000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>1112.5940000000001</v>
+        <v>1174.0619999999999</v>
       </c>
       <c r="B20" s="2">
-        <v>3.9805378629999999</v>
+        <v>3.9097664540000001</v>
       </c>
       <c r="C20" s="2">
-        <v>1107.703</v>
+        <v>1169.1089999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>3.8372093020000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.8287526430000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>1174.0619999999999</v>
+        <v>1235.8119999999999</v>
       </c>
       <c r="B21" s="2">
-        <v>3.9097664540000001</v>
+        <v>3.8478414719999998</v>
       </c>
       <c r="C21" s="2">
-        <v>1169.1089999999999</v>
+        <v>1230.5</v>
       </c>
       <c r="D21" s="2">
-        <v>3.8287526430000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.786469345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>1235.8119999999999</v>
+        <v>1297.375</v>
       </c>
       <c r="B22" s="2">
-        <v>3.8478414719999998</v>
+        <v>3.7682236379999998</v>
       </c>
       <c r="C22" s="2">
-        <v>1230.5</v>
+        <v>1291.8430000000001</v>
       </c>
       <c r="D22" s="2">
-        <v>3.786469345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.7019027480000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>1297.375</v>
+        <v>1358.828</v>
       </c>
       <c r="B23" s="2">
-        <v>3.7682236379999998</v>
+        <v>3.723991507</v>
       </c>
       <c r="C23" s="2">
-        <v>1291.8430000000001</v>
+        <v>1353.4059999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>3.7019027480000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.6427061310000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>1358.828</v>
+        <v>1420.6089999999999</v>
       </c>
       <c r="B24" s="2">
-        <v>3.723991507</v>
+        <v>3.6266808209999999</v>
       </c>
       <c r="C24" s="2">
-        <v>1353.4059999999999</v>
+        <v>1414.8430000000001</v>
       </c>
       <c r="D24" s="2">
-        <v>3.6427061310000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.5665961949999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>1420.6089999999999</v>
+        <v>1482.14</v>
       </c>
       <c r="B25" s="2">
-        <v>3.6266808209999999</v>
+        <v>3.564755839</v>
       </c>
       <c r="C25" s="2">
-        <v>1414.8430000000001</v>
+        <v>1476.328</v>
       </c>
       <c r="D25" s="2">
-        <v>3.5665961949999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.5412262160000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>1482.14</v>
+        <v>1543.5619999999999</v>
       </c>
       <c r="B26" s="2">
-        <v>3.564755839</v>
+        <v>3.5293701340000001</v>
       </c>
       <c r="C26" s="2">
-        <v>1476.328</v>
+        <v>1538.078</v>
       </c>
       <c r="D26" s="2">
-        <v>3.5412262160000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4566596189999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>1543.5619999999999</v>
+        <v>1605.297</v>
       </c>
       <c r="B27" s="2">
-        <v>3.5293701340000001</v>
+        <v>3.4409058739999998</v>
       </c>
       <c r="C27" s="2">
-        <v>1538.078</v>
+        <v>1599.4680000000001</v>
       </c>
       <c r="D27" s="2">
-        <v>3.4566596189999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.363636364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>1605.297</v>
+        <v>1666.7809999999999</v>
       </c>
       <c r="B28" s="2">
-        <v>3.4409058739999998</v>
+        <v>3.40552017</v>
       </c>
       <c r="C28" s="2">
-        <v>1599.4680000000001</v>
+        <v>1660.922</v>
       </c>
       <c r="D28" s="2">
-        <v>3.363636364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.346723044</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>1666.7809999999999</v>
+        <v>1728.25</v>
       </c>
       <c r="B29" s="2">
-        <v>3.40552017</v>
+        <v>3.3435951880000001</v>
       </c>
       <c r="C29" s="2">
-        <v>1660.922</v>
+        <v>1722.6869999999999</v>
       </c>
       <c r="D29" s="2">
-        <v>3.346723044</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.2790697670000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>1728.25</v>
+        <v>1789.7339999999999</v>
       </c>
       <c r="B30" s="2">
-        <v>3.3435951880000001</v>
+        <v>3.290516631</v>
       </c>
       <c r="C30" s="2">
-        <v>1722.6869999999999</v>
+        <v>1784.0309999999999</v>
       </c>
       <c r="D30" s="2">
-        <v>3.2790697670000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.2452431289999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>1789.7339999999999</v>
+        <v>1851.3440000000001</v>
       </c>
       <c r="B31" s="2">
-        <v>3.290516631</v>
+        <v>3.2197452229999999</v>
       </c>
       <c r="C31" s="2">
-        <v>1784.0309999999999</v>
+        <v>1845.422</v>
       </c>
       <c r="D31" s="2">
-        <v>3.2452431289999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.1860465119999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>1851.3440000000001</v>
+        <v>1912.7809999999999</v>
       </c>
       <c r="B32" s="2">
-        <v>3.2197452229999999</v>
+        <v>3.157820241</v>
       </c>
       <c r="C32" s="2">
-        <v>1845.422</v>
+        <v>1906.89</v>
       </c>
       <c r="D32" s="2">
-        <v>3.1860465119999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.135306554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>1912.7809999999999</v>
+        <v>1974.2339999999999</v>
       </c>
       <c r="B33" s="2">
-        <v>3.157820241</v>
+        <v>3.0605095539999998</v>
       </c>
       <c r="C33" s="2">
-        <v>1906.89</v>
+        <v>1968.5</v>
       </c>
       <c r="D33" s="2">
-        <v>3.135306554</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.0422832980000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>1974.2339999999999</v>
+        <v>2035.953</v>
       </c>
       <c r="B34" s="2">
-        <v>3.0605095539999998</v>
+        <v>3.0428167020000001</v>
       </c>
       <c r="C34" s="2">
-        <v>1968.5</v>
+        <v>2029.9369999999999</v>
       </c>
       <c r="D34" s="2">
-        <v>3.0422832980000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.0084566599999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>2035.953</v>
+        <v>2097.4839999999999</v>
       </c>
       <c r="B35" s="2">
-        <v>3.0428167020000001</v>
+        <v>2.9985845719999999</v>
       </c>
       <c r="C35" s="2">
-        <v>2029.9369999999999</v>
+        <v>2091.328</v>
       </c>
       <c r="D35" s="2">
-        <v>3.0084566599999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.9830866810000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>2097.4839999999999</v>
+        <v>2159.0149999999999</v>
       </c>
       <c r="B36" s="2">
-        <v>2.9985845719999999</v>
+        <v>2.9543524419999998</v>
       </c>
       <c r="C36" s="2">
-        <v>2091.328</v>
+        <v>2153.0149999999999</v>
       </c>
       <c r="D36" s="2">
-        <v>2.9830866810000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.9492600420000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>2159.0149999999999</v>
+        <v>2220.6869999999999</v>
       </c>
       <c r="B37" s="2">
-        <v>2.9543524419999998</v>
+        <v>2.883581033</v>
       </c>
       <c r="C37" s="2">
-        <v>2153.0149999999999</v>
+        <v>2214.4679999999998</v>
       </c>
       <c r="D37" s="2">
-        <v>2.9492600420000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.923890063</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>2220.6869999999999</v>
+        <v>2282.0940000000001</v>
       </c>
       <c r="B38" s="2">
-        <v>2.883581033</v>
+        <v>2.8747346070000002</v>
       </c>
       <c r="C38" s="2">
-        <v>2214.4679999999998</v>
+        <v>2275.8589999999999</v>
       </c>
       <c r="D38" s="2">
-        <v>2.923890063</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.847780127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>2282.0940000000001</v>
+        <v>2343.578</v>
       </c>
       <c r="B39" s="2">
-        <v>2.8747346070000002</v>
+        <v>2.8128096249999999</v>
       </c>
       <c r="C39" s="2">
-        <v>2275.8589999999999</v>
+        <v>2337.5149999999999</v>
       </c>
       <c r="D39" s="2">
-        <v>2.847780127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.78858351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>2343.578</v>
+        <v>2405.2809999999999</v>
       </c>
       <c r="B40" s="2">
-        <v>2.8128096249999999</v>
+        <v>2.750884643</v>
       </c>
       <c r="C40" s="2">
-        <v>2337.5149999999999</v>
+        <v>2398.89</v>
       </c>
       <c r="D40" s="2">
-        <v>2.78858351</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.729386892</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>2405.2809999999999</v>
+        <v>2466.6869999999999</v>
       </c>
       <c r="B41" s="2">
-        <v>2.750884643</v>
+        <v>2.6978060859999999</v>
       </c>
       <c r="C41" s="2">
-        <v>2398.89</v>
+        <v>2460.3119999999999</v>
       </c>
       <c r="D41" s="2">
-        <v>2.729386892</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.6955602540000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>2466.6869999999999</v>
+        <v>2528.1559999999999</v>
       </c>
       <c r="B42" s="2">
-        <v>2.6978060859999999</v>
+        <v>2.6624203820000001</v>
       </c>
       <c r="C42" s="2">
-        <v>2460.3119999999999</v>
+        <v>2521.797</v>
       </c>
       <c r="D42" s="2">
-        <v>2.6955602540000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.6871035939999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>2528.1559999999999</v>
+        <v>2589.703</v>
       </c>
       <c r="B43" s="2">
-        <v>2.6624203820000001</v>
+        <v>2.6358811040000001</v>
       </c>
       <c r="C43" s="2">
-        <v>2521.797</v>
+        <v>2583.4369999999999</v>
       </c>
       <c r="D43" s="2">
-        <v>2.6871035939999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.6701902749999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>2589.703</v>
+        <v>2651.25</v>
       </c>
       <c r="B44" s="2">
-        <v>2.6358811040000001</v>
+        <v>2.5739561219999998</v>
       </c>
       <c r="C44" s="2">
-        <v>2583.4369999999999</v>
+        <v>2644.8119999999999</v>
       </c>
       <c r="D44" s="2">
-        <v>2.6701902749999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.6448202959999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>2651.25</v>
+        <v>2712.7190000000001</v>
       </c>
       <c r="B45" s="2">
-        <v>2.5739561219999998</v>
+        <v>2.5297239920000001</v>
       </c>
       <c r="C45" s="2">
-        <v>2644.8119999999999</v>
+        <v>2706.3119999999999</v>
       </c>
       <c r="D45" s="2">
-        <v>2.6448202959999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.6025369980000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>2712.7190000000001</v>
+        <v>2774.2190000000001</v>
       </c>
       <c r="B46" s="2">
-        <v>2.5297239920000001</v>
+        <v>2.4943382870000002</v>
       </c>
       <c r="C46" s="2">
-        <v>2706.3119999999999</v>
+        <v>2768.0619999999999</v>
       </c>
       <c r="D46" s="2">
-        <v>2.6025369980000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5433403810000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>2774.2190000000001</v>
+        <v>2835.922</v>
       </c>
       <c r="B47" s="2">
-        <v>2.4943382870000002</v>
+        <v>2.4324133049999999</v>
       </c>
       <c r="C47" s="2">
-        <v>2768.0619999999999</v>
+        <v>2829.5309999999999</v>
       </c>
       <c r="D47" s="2">
-        <v>2.5433403810000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.501057082</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>2835.922</v>
+        <v>2897.375</v>
       </c>
       <c r="B48" s="2">
-        <v>2.4324133049999999</v>
+        <v>2.4147204530000002</v>
       </c>
       <c r="C48" s="2">
-        <v>2829.5309999999999</v>
+        <v>2891</v>
       </c>
       <c r="D48" s="2">
-        <v>2.501057082</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.4841437630000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>2897.375</v>
+        <v>2958.8119999999999</v>
       </c>
       <c r="B49" s="2">
-        <v>2.4147204530000002</v>
+        <v>2.343949045</v>
       </c>
       <c r="C49" s="2">
-        <v>2891</v>
+        <v>2952.6869999999999</v>
       </c>
       <c r="D49" s="2">
-        <v>2.4841437630000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.4164904859999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>2958.8119999999999</v>
+        <v>3020.547</v>
       </c>
       <c r="B50" s="2">
-        <v>2.343949045</v>
+        <v>2.3262561919999998</v>
       </c>
       <c r="C50" s="2">
-        <v>2952.6869999999999</v>
+        <v>3014.203</v>
       </c>
       <c r="D50" s="2">
-        <v>2.4164904859999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.3742071880000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>3020.547</v>
+        <v>3082.125</v>
       </c>
       <c r="B51" s="2">
-        <v>2.3262561919999998</v>
+        <v>2.2731776359999998</v>
       </c>
       <c r="C51" s="2">
-        <v>3014.203</v>
+        <v>3075.5929999999998</v>
       </c>
       <c r="D51" s="2">
-        <v>2.3742071880000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.3150105710000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>3082.125</v>
+        <v>3143.672</v>
       </c>
       <c r="B52" s="2">
-        <v>2.2731776359999998</v>
+        <v>2.2554847840000001</v>
       </c>
       <c r="C52" s="2">
-        <v>3075.5929999999998</v>
+        <v>3137.047</v>
       </c>
       <c r="D52" s="2">
-        <v>2.3150105710000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.2811839319999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>3143.672</v>
+        <v>3205.2190000000001</v>
       </c>
       <c r="B53" s="2">
-        <v>2.2554847840000001</v>
+        <v>2.2024062280000001</v>
       </c>
       <c r="C53" s="2">
-        <v>3137.047</v>
+        <v>3198.625</v>
       </c>
       <c r="D53" s="2">
-        <v>2.2811839319999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.2642706129999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>3205.2190000000001</v>
+        <v>3266.6559999999999</v>
       </c>
       <c r="B54" s="2">
-        <v>2.2024062280000001</v>
+        <v>2.1670205239999998</v>
       </c>
       <c r="C54" s="2">
-        <v>3198.625</v>
+        <v>3260.0619999999999</v>
       </c>
       <c r="D54" s="2">
-        <v>2.2642706129999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.230443975</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>3266.6559999999999</v>
+        <v>3328.0940000000001</v>
       </c>
       <c r="B55" s="2">
         <v>2.1670205239999998</v>
       </c>
       <c r="C55" s="2">
-        <v>3260.0619999999999</v>
+        <v>3321.547</v>
       </c>
       <c r="D55" s="2">
+        <v>2.2473572939999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>3389.828</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2.1050955409999998</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3383.3429999999998</v>
+      </c>
+      <c r="D56" s="2">
         <v>2.230443975</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>3328.0940000000001</v>
-      </c>
-      <c r="B56" s="2">
-        <v>2.1670205239999998</v>
-      </c>
-      <c r="C56" s="2">
-        <v>3321.547</v>
-      </c>
-      <c r="D56" s="2">
-        <v>2.2473572939999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>3389.828</v>
+        <v>3451.328</v>
       </c>
       <c r="B57" s="2">
-        <v>2.1050955409999998</v>
+        <v>2.0520169849999998</v>
       </c>
       <c r="C57" s="2">
-        <v>3383.3429999999998</v>
+        <v>3444.7809999999999</v>
       </c>
       <c r="D57" s="2">
-        <v>2.230443975</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1712473569999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>3451.328</v>
+        <v>3512.7649999999999</v>
       </c>
       <c r="B58" s="2">
-        <v>2.0520169849999998</v>
+        <v>2.016631281</v>
       </c>
       <c r="C58" s="2">
-        <v>3444.7809999999999</v>
+        <v>3506.25</v>
       </c>
       <c r="D58" s="2">
-        <v>2.1712473569999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.154334038</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>3512.7649999999999</v>
+        <v>3574.5309999999999</v>
       </c>
       <c r="B59" s="2">
-        <v>2.016631281</v>
+        <v>1.9812455769999999</v>
       </c>
       <c r="C59" s="2">
-        <v>3506.25</v>
+        <v>3567.953</v>
       </c>
       <c r="D59" s="2">
-        <v>2.154334038</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1289640589999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>3574.5309999999999</v>
+        <v>3636.0619999999999</v>
       </c>
       <c r="B60" s="2">
-        <v>1.9812455769999999</v>
+        <v>1.9281670209999999</v>
       </c>
       <c r="C60" s="2">
-        <v>3567.953</v>
+        <v>3629.422</v>
       </c>
       <c r="D60" s="2">
-        <v>2.1289640589999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1120507399999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>3636.0619999999999</v>
+        <v>3697.5619999999999</v>
       </c>
       <c r="B61" s="2">
-        <v>1.9281670209999999</v>
+        <v>1.9016277420000001</v>
       </c>
       <c r="C61" s="2">
-        <v>3629.422</v>
+        <v>3690.8589999999999</v>
       </c>
       <c r="D61" s="2">
-        <v>2.1120507399999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.078224101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>3697.5619999999999</v>
+        <v>3759.2190000000001</v>
       </c>
       <c r="B62" s="2">
-        <v>1.9016277420000001</v>
+        <v>1.892781316</v>
       </c>
       <c r="C62" s="2">
-        <v>3690.8589999999999</v>
+        <v>3752.3589999999999</v>
       </c>
       <c r="D62" s="2">
-        <v>2.078224101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0359408029999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>3759.2190000000001</v>
+        <v>3820.7339999999999</v>
       </c>
       <c r="B63" s="2">
-        <v>1.892781316</v>
+        <v>1.866242038</v>
       </c>
       <c r="C63" s="2">
-        <v>3752.3589999999999</v>
+        <v>3813.89</v>
       </c>
       <c r="D63" s="2">
-        <v>2.0359408029999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.9936575050000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>3820.7339999999999</v>
+        <v>3882.2190000000001</v>
       </c>
       <c r="B64" s="2">
-        <v>1.866242038</v>
+        <v>1.813163482</v>
       </c>
       <c r="C64" s="2">
-        <v>3813.89</v>
+        <v>3875.297</v>
       </c>
       <c r="D64" s="2">
-        <v>1.9936575050000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.9767441859999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>3882.2190000000001</v>
+        <v>3943.89</v>
       </c>
       <c r="B65" s="2">
         <v>1.813163482</v>
       </c>
       <c r="C65" s="2">
-        <v>3875.297</v>
+        <v>3936.703</v>
       </c>
       <c r="D65" s="2">
-        <v>1.9767441859999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.9682875259999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>3943.89</v>
+        <v>4005.39</v>
       </c>
       <c r="B66" s="2">
-        <v>1.813163482</v>
+        <v>1.7512384999999999</v>
       </c>
       <c r="C66" s="2">
-        <v>3936.703</v>
+        <v>3998.375</v>
       </c>
       <c r="D66" s="2">
-        <v>1.9682875259999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.926004228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>4005.39</v>
+        <v>4066.875</v>
       </c>
       <c r="B67" s="2">
-        <v>1.7512384999999999</v>
+        <v>1.733545648</v>
       </c>
       <c r="C67" s="2">
-        <v>3998.375</v>
+        <v>4059.797</v>
       </c>
       <c r="D67" s="2">
-        <v>1.926004228</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.88372093</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>4066.875</v>
+        <v>4128.375</v>
       </c>
       <c r="B68" s="2">
-        <v>1.733545648</v>
+        <v>1.715852795</v>
       </c>
       <c r="C68" s="2">
-        <v>4059.797</v>
+        <v>4121.2340000000004</v>
       </c>
       <c r="D68" s="2">
-        <v>1.88372093</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.799154334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>4128.375</v>
+        <v>4189.9840000000004</v>
       </c>
       <c r="B69" s="2">
-        <v>1.715852795</v>
+        <v>1.6981599430000001</v>
       </c>
       <c r="C69" s="2">
-        <v>4121.2340000000004</v>
+        <v>4182.7650000000003</v>
       </c>
       <c r="D69" s="2">
         <v>1.799154334</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>4189.9840000000004</v>
+        <v>4251.4530000000004</v>
       </c>
       <c r="B70" s="2">
-        <v>1.6981599430000001</v>
+        <v>1.662774239</v>
       </c>
       <c r="C70" s="2">
-        <v>4182.7650000000003</v>
+        <v>4244.25</v>
       </c>
       <c r="D70" s="2">
         <v>1.799154334</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>4251.4530000000004</v>
+        <v>4313.0150000000003</v>
       </c>
       <c r="B71" s="2">
-        <v>1.662774239</v>
+        <v>1.609695683</v>
       </c>
       <c r="C71" s="2">
-        <v>4244.25</v>
+        <v>4305.7340000000004</v>
       </c>
       <c r="D71" s="2">
-        <v>1.799154334</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.6807610989999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>4313.0150000000003</v>
+        <v>4374.6719999999996</v>
       </c>
       <c r="B72" s="2">
-        <v>1.609695683</v>
+        <v>1.6008492569999999</v>
       </c>
       <c r="C72" s="2">
-        <v>4305.7340000000004</v>
+        <v>4367.1719999999996</v>
       </c>
       <c r="D72" s="2">
+        <v>1.739957717</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>4436.5780000000004</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1.5654635530000001</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4428.8900000000003</v>
+      </c>
+      <c r="D73" s="2">
         <v>1.6807610989999999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>4374.6719999999996</v>
-      </c>
-      <c r="B73" s="2">
-        <v>1.6008492569999999</v>
-      </c>
-      <c r="C73" s="2">
-        <v>4367.1719999999996</v>
-      </c>
-      <c r="D73" s="2">
-        <v>1.739957717</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>4436.5780000000004</v>
+        <v>4514.8280000000004</v>
       </c>
       <c r="B74" s="2">
-        <v>1.5654635530000001</v>
+        <v>1.5477707009999999</v>
       </c>
       <c r="C74" s="2">
-        <v>4428.8900000000003</v>
+        <v>4490.3119999999999</v>
       </c>
       <c r="D74" s="2">
-        <v>1.6807610989999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.6892177589999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>4514.8280000000004</v>
+        <v>4577.8590000000004</v>
       </c>
       <c r="B75" s="2">
-        <v>1.5477707009999999</v>
+        <v>1.5212314229999999</v>
       </c>
       <c r="C75" s="2">
-        <v>4490.3119999999999</v>
+        <v>4551.7969999999996</v>
       </c>
       <c r="D75" s="2">
-        <v>1.6892177589999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.66384778</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>4577.8590000000004</v>
+        <v>4639.3280000000004</v>
       </c>
       <c r="B76" s="2">
-        <v>1.5212314229999999</v>
+        <v>1.5035385699999999</v>
       </c>
       <c r="C76" s="2">
-        <v>4551.7969999999996</v>
+        <v>4613.2340000000004</v>
       </c>
       <c r="D76" s="2">
-        <v>1.66384778</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.6131078219999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>4639.3280000000004</v>
+        <v>4700.8900000000003</v>
       </c>
       <c r="B77" s="2">
-        <v>1.5035385699999999</v>
+        <v>1.4769992919999999</v>
       </c>
       <c r="C77" s="2">
-        <v>4613.2340000000004</v>
+        <v>4674.8280000000004</v>
       </c>
       <c r="D77" s="2">
-        <v>1.6131078219999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5792811840000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>4700.8900000000003</v>
+        <v>4762.6090000000004</v>
       </c>
       <c r="B78" s="2">
-        <v>1.4769992919999999</v>
+        <v>1.4416135880000001</v>
       </c>
       <c r="C78" s="2">
-        <v>4674.8280000000004</v>
+        <v>4736.2650000000003</v>
       </c>
       <c r="D78" s="2">
-        <v>1.5792811840000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.596194503</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>4762.6090000000004</v>
+        <v>4824.0780000000004</v>
       </c>
       <c r="B79" s="2">
-        <v>1.4416135880000001</v>
+        <v>1.432767162</v>
       </c>
       <c r="C79" s="2">
-        <v>4736.2650000000003</v>
+        <v>4797.6559999999999</v>
       </c>
       <c r="D79" s="2">
-        <v>1.596194503</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5454545449999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>4824.0780000000004</v>
+        <v>4885.4690000000001</v>
       </c>
       <c r="B80" s="2">
-        <v>1.432767162</v>
+        <v>1.406227884</v>
       </c>
       <c r="C80" s="2">
-        <v>4797.6559999999999</v>
+        <v>4859.3590000000004</v>
       </c>
       <c r="D80" s="2">
         <v>1.5454545449999999</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>4885.4690000000001</v>
+        <v>4946.9840000000004</v>
       </c>
       <c r="B81" s="2">
-        <v>1.406227884</v>
+        <v>1.379688606</v>
       </c>
       <c r="C81" s="2">
-        <v>4859.3590000000004</v>
+        <v>4920.7340000000004</v>
       </c>
       <c r="D81" s="2">
-        <v>1.5454545449999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5792811840000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>4946.9840000000004</v>
+        <v>5008.5469999999996</v>
       </c>
       <c r="B82" s="2">
-        <v>1.379688606</v>
+        <v>1.3619957540000001</v>
       </c>
       <c r="C82" s="2">
-        <v>4920.7340000000004</v>
+        <v>4982.1869999999999</v>
       </c>
       <c r="D82" s="2">
-        <v>1.5792811840000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.511627907</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>5008.5469999999996</v>
+        <v>5070.0309999999999</v>
       </c>
       <c r="B83" s="2">
-        <v>1.3619957540000001</v>
+        <v>1.32661005</v>
       </c>
       <c r="C83" s="2">
-        <v>4982.1869999999999</v>
+        <v>5043.6559999999999</v>
       </c>
       <c r="D83" s="2">
-        <v>1.511627907</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5200845670000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>5070.0309999999999</v>
+        <v>5131.4369999999999</v>
       </c>
       <c r="B84" s="2">
         <v>1.32661005</v>
       </c>
       <c r="C84" s="2">
-        <v>5043.6559999999999</v>
+        <v>5105.2650000000003</v>
       </c>
       <c r="D84" s="2">
         <v>1.5200845670000001</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>5131.4369999999999</v>
+        <v>5193.1719999999996</v>
       </c>
       <c r="B85" s="2">
-        <v>1.32661005</v>
+        <v>1.2912243450000001</v>
       </c>
       <c r="C85" s="2">
-        <v>5105.2650000000003</v>
+        <v>5166.7340000000004</v>
       </c>
       <c r="D85" s="2">
-        <v>1.5200845670000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.410147992</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>5193.1719999999996</v>
+        <v>5254.6869999999999</v>
       </c>
       <c r="B86" s="2">
-        <v>1.2912243450000001</v>
+        <v>1.282377919</v>
       </c>
       <c r="C86" s="2">
-        <v>5166.7340000000004</v>
+        <v>5228.2030000000004</v>
       </c>
       <c r="D86" s="2">
-        <v>1.410147992</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.393234672</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>5254.6869999999999</v>
+        <v>5316.1869999999999</v>
       </c>
       <c r="B87" s="2">
-        <v>1.282377919</v>
+        <v>1.2381457890000001</v>
       </c>
       <c r="C87" s="2">
-        <v>5228.2030000000004</v>
+        <v>5289.875</v>
       </c>
       <c r="D87" s="2">
-        <v>1.393234672</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.4270613110000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>5316.1869999999999</v>
+        <v>5377.9369999999999</v>
       </c>
       <c r="B88" s="2">
-        <v>1.2381457890000001</v>
+        <v>1.2469922149999999</v>
       </c>
       <c r="C88" s="2">
-        <v>5289.875</v>
+        <v>5351.2969999999996</v>
       </c>
       <c r="D88" s="2">
-        <v>1.4270613110000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.43551797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>5377.9369999999999</v>
+        <v>5439.4219999999996</v>
       </c>
       <c r="B89" s="2">
-        <v>1.2469922149999999</v>
+        <v>1.2204529369999999</v>
       </c>
       <c r="C89" s="2">
-        <v>5351.2969999999996</v>
+        <v>5412.7969999999996</v>
       </c>
       <c r="D89" s="2">
-        <v>1.43551797</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.3509513740000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>5439.4219999999996</v>
+        <v>5500.89</v>
       </c>
       <c r="B90" s="2">
-        <v>1.2204529369999999</v>
+        <v>1.202760085</v>
       </c>
       <c r="C90" s="2">
-        <v>5412.7969999999996</v>
+        <v>5474.4840000000004</v>
       </c>
       <c r="D90" s="2">
         <v>1.3509513740000001</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>5500.89</v>
+        <v>5562.64</v>
       </c>
       <c r="B91" s="2">
-        <v>1.202760085</v>
+        <v>1.1673743809999999</v>
       </c>
       <c r="C91" s="2">
-        <v>5474.4840000000004</v>
+        <v>5535.9369999999999</v>
       </c>
       <c r="D91" s="2">
-        <v>1.3509513740000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.393234672</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>5562.64</v>
+        <v>5624.0780000000004</v>
       </c>
       <c r="B92" s="2">
-        <v>1.1673743809999999</v>
+        <v>1.1585279550000001</v>
       </c>
       <c r="C92" s="2">
-        <v>5535.9369999999999</v>
+        <v>5597.3280000000004</v>
       </c>
       <c r="D92" s="2">
-        <v>1.393234672</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.300211416</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>5624.0780000000004</v>
+        <v>5685.5309999999999</v>
       </c>
       <c r="B93" s="2">
-        <v>1.1585279550000001</v>
+        <v>1.1408351029999999</v>
       </c>
       <c r="C93" s="2">
-        <v>5597.3280000000004</v>
+        <v>5658.7969999999996</v>
       </c>
       <c r="D93" s="2">
-        <v>1.300211416</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.3424947149999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>5685.5309999999999</v>
+        <v>5747.1090000000004</v>
       </c>
       <c r="B94" s="2">
-        <v>1.1408351029999999</v>
+        <v>1.105449398</v>
       </c>
       <c r="C94" s="2">
-        <v>5658.7969999999996</v>
+        <v>5720.2969999999996</v>
       </c>
       <c r="D94" s="2">
-        <v>1.3424947149999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.308668076</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>5747.1090000000004</v>
+        <v>5808.5619999999999</v>
       </c>
       <c r="B95" s="2">
-        <v>1.105449398</v>
+        <v>1.0966029719999999</v>
       </c>
       <c r="C95" s="2">
-        <v>5720.2969999999996</v>
+        <v>5781.8280000000004</v>
       </c>
       <c r="D95" s="2">
-        <v>1.308668076</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.2663847779999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>5808.5619999999999</v>
+        <v>5870.0309999999999</v>
       </c>
       <c r="B96" s="2">
         <v>1.0966029719999999</v>
       </c>
       <c r="C96" s="2">
-        <v>5781.8280000000004</v>
+        <v>5843.2030000000004</v>
       </c>
       <c r="D96" s="2">
-        <v>1.2663847779999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.249471459</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>5870.0309999999999</v>
+        <v>5931.4690000000001</v>
       </c>
       <c r="B97" s="2">
-        <v>1.0966029719999999</v>
+        <v>1.0700636939999999</v>
       </c>
       <c r="C97" s="2">
-        <v>5843.2030000000004</v>
+        <v>5904.8590000000004</v>
       </c>
       <c r="D97" s="2">
-        <v>1.249471459</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.2325581400000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>5931.4690000000001</v>
+        <v>5993.1719999999996</v>
       </c>
       <c r="B98" s="2">
-        <v>1.0700636939999999</v>
+        <v>1.061217268</v>
       </c>
       <c r="C98" s="2">
-        <v>5904.8590000000004</v>
+        <v>5966.25</v>
       </c>
       <c r="D98" s="2">
-        <v>1.2325581400000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.2156448200000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>5993.1719999999996</v>
+        <v>6054.6090000000004</v>
       </c>
       <c r="B99" s="2">
-        <v>1.061217268</v>
+        <v>1.0435244159999999</v>
       </c>
       <c r="C99" s="2">
-        <v>5966.25</v>
+        <v>6027.6869999999999</v>
       </c>
       <c r="D99" s="2">
+        <v>1.1564482030000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>6116.0150000000003</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1.025831564</v>
+      </c>
+      <c r="C100" s="2">
+        <v>6089.2179999999998</v>
+      </c>
+      <c r="D100" s="2">
         <v>1.2156448200000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>6054.6090000000004</v>
-      </c>
-      <c r="B100" s="2">
-        <v>1.0435244159999999</v>
-      </c>
-      <c r="C100" s="2">
-        <v>6027.6869999999999</v>
-      </c>
-      <c r="D100" s="2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>6177.4369999999999</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1.008138712</v>
+      </c>
+      <c r="C101" s="2">
+        <v>6150.8280000000004</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1.1902748409999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>6239.0940000000001</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.98159943400000005</v>
+      </c>
+      <c r="C102" s="2">
+        <v>6212.2809999999999</v>
+      </c>
+      <c r="D102" s="2">
         <v>1.1564482030000001</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>6116.0150000000003</v>
-      </c>
-      <c r="B101" s="2">
-        <v>1.025831564</v>
-      </c>
-      <c r="C101" s="2">
-        <v>6089.2179999999998</v>
-      </c>
-      <c r="D101" s="2">
-        <v>1.2156448200000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>6177.4369999999999</v>
-      </c>
-      <c r="B102" s="2">
-        <v>1.008138712</v>
-      </c>
-      <c r="C102" s="2">
-        <v>6150.8280000000004</v>
-      </c>
-      <c r="D102" s="2">
-        <v>1.1902748409999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>6239.0940000000001</v>
+        <v>6300.5309999999999</v>
       </c>
       <c r="B103" s="2">
         <v>0.98159943400000005</v>
       </c>
       <c r="C103" s="2">
-        <v>6212.2809999999999</v>
+        <v>6273.75</v>
       </c>
       <c r="D103" s="2">
-        <v>1.1564482030000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1479915430000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>6300.5309999999999</v>
+        <v>6362.0150000000003</v>
       </c>
       <c r="B104" s="2">
-        <v>0.98159943400000005</v>
+        <v>0.96390658200000001</v>
       </c>
       <c r="C104" s="2">
-        <v>6273.75</v>
+        <v>6335.39</v>
       </c>
       <c r="D104" s="2">
         <v>1.1479915430000001</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>6362.0150000000003</v>
+        <v>6423.7340000000004</v>
       </c>
       <c r="B105" s="2">
-        <v>0.96390658200000001</v>
+        <v>0.93736730400000001</v>
       </c>
       <c r="C105" s="2">
-        <v>6335.39</v>
+        <v>6396.8280000000004</v>
       </c>
       <c r="D105" s="2">
-        <v>1.1479915430000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.105708245</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>6423.7340000000004</v>
+        <v>6485.1090000000004</v>
       </c>
       <c r="B106" s="2">
-        <v>0.93736730400000001</v>
+        <v>0.893135173</v>
       </c>
       <c r="C106" s="2">
-        <v>6396.8280000000004</v>
+        <v>6458.2650000000003</v>
       </c>
       <c r="D106" s="2">
-        <v>1.105708245</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0972515860000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>6485.1090000000004</v>
+        <v>6546.6719999999996</v>
       </c>
       <c r="B107" s="2">
+        <v>0.92852087800000005</v>
+      </c>
+      <c r="C107" s="2">
+        <v>6519.9059999999999</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1.0887949260000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>6608.3280000000004</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.91082802500000004</v>
+      </c>
+      <c r="C108" s="2">
+        <v>6581.375</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1.080338266</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>6669.875</v>
+      </c>
+      <c r="B109" s="2">
         <v>0.893135173</v>
       </c>
-      <c r="C107" s="2">
-        <v>6458.2650000000003</v>
-      </c>
-      <c r="D107" s="2">
-        <v>1.0972515860000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>6546.6719999999996</v>
-      </c>
-      <c r="B108" s="2">
-        <v>0.92852087800000005</v>
-      </c>
-      <c r="C108" s="2">
-        <v>6519.9059999999999</v>
-      </c>
-      <c r="D108" s="2">
-        <v>1.0887949260000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>6608.3280000000004</v>
-      </c>
-      <c r="B109" s="2">
-        <v>0.91082802500000004</v>
-      </c>
       <c r="C109" s="2">
-        <v>6581.375</v>
+        <v>6642.7809999999999</v>
       </c>
       <c r="D109" s="2">
-        <v>1.080338266</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.114164905</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>6669.875</v>
+        <v>6731.3280000000004</v>
       </c>
       <c r="B110" s="2">
-        <v>0.893135173</v>
+        <v>0.866595895</v>
       </c>
       <c r="C110" s="2">
-        <v>6642.7809999999999</v>
+        <v>6704.3119999999999</v>
       </c>
       <c r="D110" s="2">
-        <v>1.114164905</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.029598309</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>6731.3280000000004</v>
+        <v>6793.0940000000001</v>
       </c>
       <c r="B111" s="2">
-        <v>0.866595895</v>
+        <v>0.85774946900000004</v>
       </c>
       <c r="C111" s="2">
-        <v>6704.3119999999999</v>
+        <v>6765.7650000000003</v>
       </c>
       <c r="D111" s="2">
-        <v>1.029598309</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0042283299999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>6793.0940000000001</v>
+        <v>6854.625</v>
       </c>
       <c r="B112" s="2">
         <v>0.85774946900000004</v>
       </c>
       <c r="C112" s="2">
-        <v>6765.7650000000003</v>
+        <v>6827.14</v>
       </c>
       <c r="D112" s="2">
-        <v>1.0042283299999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.038054968</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>6854.625</v>
+        <v>6916.14</v>
       </c>
       <c r="B113" s="2">
-        <v>0.85774946900000004</v>
+        <v>0.83121019100000004</v>
       </c>
       <c r="C113" s="2">
-        <v>6827.14</v>
+        <v>6888.5929999999998</v>
       </c>
       <c r="D113" s="2">
-        <v>1.038054968</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.97885835099999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>6916.14</v>
+        <v>6977.8280000000004</v>
       </c>
       <c r="B114" s="2">
         <v>0.83121019100000004</v>
       </c>
       <c r="C114" s="2">
-        <v>6888.5929999999998</v>
+        <v>6950.3429999999998</v>
       </c>
       <c r="D114" s="2">
-        <v>0.97885835099999996</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.021141649</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>6977.8280000000004</v>
+        <v>7039.3119999999999</v>
       </c>
       <c r="B115" s="2">
-        <v>0.83121019100000004</v>
+        <v>0.78697806100000001</v>
       </c>
       <c r="C115" s="2">
-        <v>6950.3429999999998</v>
+        <v>7011.7030000000004</v>
       </c>
       <c r="D115" s="2">
-        <v>1.021141649</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0042283299999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>7039.3119999999999</v>
+        <v>7100.7190000000001</v>
       </c>
       <c r="B116" s="2">
-        <v>0.78697806100000001</v>
+        <v>0.80467091300000004</v>
       </c>
       <c r="C116" s="2">
-        <v>7011.7030000000004</v>
+        <v>7073.1559999999999</v>
       </c>
       <c r="D116" s="2">
-        <v>1.0042283299999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.96194503200000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>7100.7190000000001</v>
+        <v>7162.39</v>
       </c>
       <c r="B117" s="2">
         <v>0.80467091300000004</v>
       </c>
       <c r="C117" s="2">
-        <v>7073.1559999999999</v>
+        <v>7134.625</v>
       </c>
       <c r="D117" s="2">
         <v>0.96194503200000003</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>7162.39</v>
+        <v>7223.9369999999999</v>
       </c>
       <c r="B118" s="2">
-        <v>0.80467091300000004</v>
+        <v>0.77813163500000004</v>
       </c>
       <c r="C118" s="2">
-        <v>7134.625</v>
+        <v>7196.1869999999999</v>
       </c>
       <c r="D118" s="2">
-        <v>0.96194503200000003</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.88583509500000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>7223.9369999999999</v>
+        <v>7285.3590000000004</v>
       </c>
       <c r="B119" s="2">
-        <v>0.77813163500000004</v>
+        <v>0.75159235700000004</v>
       </c>
       <c r="C119" s="2">
-        <v>7196.1869999999999</v>
+        <v>7257.625</v>
       </c>
       <c r="D119" s="2">
-        <v>0.88583509500000002</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.90274841400000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>7285.3590000000004</v>
+        <v>7346.8119999999999</v>
       </c>
       <c r="B120" s="2">
-        <v>0.75159235700000004</v>
+        <v>0.76043878300000001</v>
       </c>
       <c r="C120" s="2">
-        <v>7257.625</v>
+        <v>7319.125</v>
       </c>
       <c r="D120" s="2">
-        <v>0.90274841400000005</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.87737843599999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>7346.8119999999999</v>
+        <v>7408.3440000000001</v>
       </c>
       <c r="B121" s="2">
-        <v>0.76043878300000001</v>
+        <v>0.74274593099999997</v>
       </c>
       <c r="C121" s="2">
-        <v>7319.125</v>
+        <v>7380.75</v>
       </c>
       <c r="D121" s="2">
+        <v>0.94503171200000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>7469.7190000000001</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0.73389950500000001</v>
+      </c>
+      <c r="C122" s="2">
+        <v>7442.1090000000004</v>
+      </c>
+      <c r="D122" s="2">
         <v>0.87737843599999998</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>7408.3440000000001</v>
-      </c>
-      <c r="B122" s="2">
-        <v>0.74274593099999997</v>
-      </c>
-      <c r="C122" s="2">
-        <v>7380.75</v>
-      </c>
-      <c r="D122" s="2">
-        <v>0.94503171200000002</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>7469.7190000000001</v>
+        <v>7531.125</v>
       </c>
       <c r="B123" s="2">
-        <v>0.73389950500000001</v>
+        <v>0.71620665299999997</v>
       </c>
       <c r="C123" s="2">
-        <v>7442.1090000000004</v>
+        <v>7503.5929999999998</v>
       </c>
       <c r="D123" s="2">
-        <v>0.87737843599999998</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.91120507399999995</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>7531.125</v>
+        <v>7592.7969999999996</v>
       </c>
       <c r="B124" s="2">
-        <v>0.71620665299999997</v>
+        <v>0.70736022600000004</v>
       </c>
       <c r="C124" s="2">
-        <v>7503.5929999999998</v>
+        <v>7565.2969999999996</v>
       </c>
       <c r="D124" s="2">
-        <v>0.91120507399999995</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.86046511599999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>7592.7969999999996</v>
+        <v>7654.2190000000001</v>
       </c>
       <c r="B125" s="2">
-        <v>0.70736022600000004</v>
+        <v>0.69851379999999996</v>
       </c>
       <c r="C125" s="2">
-        <v>7565.2969999999996</v>
+        <v>7626.8280000000004</v>
       </c>
       <c r="D125" s="2">
-        <v>0.86046511599999997</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.84355179700000005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>7654.2190000000001</v>
+        <v>7715.6559999999999</v>
       </c>
       <c r="B126" s="2">
-        <v>0.69851379999999996</v>
+        <v>0.689667374</v>
       </c>
       <c r="C126" s="2">
-        <v>7626.8280000000004</v>
+        <v>7688.1719999999996</v>
       </c>
       <c r="D126" s="2">
-        <v>0.84355179700000005</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.80972515899999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>7715.6559999999999</v>
+        <v>7777.25</v>
       </c>
       <c r="B127" s="2">
-        <v>0.689667374</v>
+        <v>0.67197452199999996</v>
       </c>
       <c r="C127" s="2">
-        <v>7688.1719999999996</v>
+        <v>7749.5929999999998</v>
       </c>
       <c r="D127" s="2">
         <v>0.80972515899999997</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>7777.25</v>
+        <v>7838.7650000000003</v>
       </c>
       <c r="B128" s="2">
-        <v>0.67197452199999996</v>
+        <v>0.68082094800000004</v>
       </c>
       <c r="C128" s="2">
-        <v>7749.5929999999998</v>
+        <v>7811.1719999999996</v>
       </c>
       <c r="D128" s="2">
-        <v>0.80972515899999997</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.79281183899999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>7838.7650000000003</v>
+        <v>7900.2650000000003</v>
       </c>
       <c r="B129" s="2">
         <v>0.68082094800000004</v>
       </c>
       <c r="C129" s="2">
-        <v>7811.1719999999996</v>
+        <v>7872.64</v>
       </c>
       <c r="D129" s="2">
-        <v>0.79281183899999996</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.85200845700000005</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>7900.2650000000003</v>
+        <v>7961.64</v>
       </c>
       <c r="B130" s="2">
-        <v>0.68082094800000004</v>
+        <v>0.65428167000000004</v>
       </c>
       <c r="C130" s="2">
-        <v>7872.64</v>
+        <v>7934.0780000000004</v>
       </c>
       <c r="D130" s="2">
-        <v>0.85200845700000005</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.82663847800000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>7961.64</v>
+        <v>8023.4369999999999</v>
       </c>
       <c r="B131" s="2">
-        <v>0.65428167000000004</v>
+        <v>0.64543524399999996</v>
       </c>
       <c r="C131" s="2">
-        <v>7934.0780000000004</v>
+        <v>7995.75</v>
       </c>
       <c r="D131" s="2">
+        <v>0.77589852000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>8084.8440000000001</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0.636588818</v>
+      </c>
+      <c r="C132" s="2">
+        <v>8057.2030000000004</v>
+      </c>
+      <c r="D132" s="2">
         <v>0.82663847800000001</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>8023.4369999999999</v>
-      </c>
-      <c r="B132" s="2">
-        <v>0.64543524399999996</v>
-      </c>
-      <c r="C132" s="2">
-        <v>7995.75</v>
-      </c>
-      <c r="D132" s="2">
-        <v>0.77589852000000004</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>8084.8440000000001</v>
+        <v>8146.2190000000001</v>
       </c>
       <c r="B133" s="2">
-        <v>0.636588818</v>
+        <v>0.61004954</v>
       </c>
       <c r="C133" s="2">
-        <v>8057.2030000000004</v>
+        <v>8118.64</v>
       </c>
       <c r="D133" s="2">
-        <v>0.82663847800000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.78435518000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>8146.2190000000001</v>
+        <v>8207.875</v>
       </c>
       <c r="B134" s="2">
         <v>0.61004954</v>
       </c>
       <c r="C134" s="2">
-        <v>8118.64</v>
+        <v>8180.1090000000004</v>
       </c>
       <c r="D134" s="2">
-        <v>0.78435518000000004</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.76744186000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>8207.875</v>
+        <v>8269.2810000000009</v>
       </c>
       <c r="B135" s="2">
         <v>0.61004954</v>
       </c>
       <c r="C135" s="2">
-        <v>8180.1090000000004</v>
+        <v>8241.6720000000005</v>
       </c>
       <c r="D135" s="2">
-        <v>0.76744186000000003</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.77589852000000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>8269.2810000000009</v>
+        <v>8330.7970000000005</v>
       </c>
       <c r="B136" s="2">
-        <v>0.61004954</v>
+        <v>0.583510262</v>
       </c>
       <c r="C136" s="2">
-        <v>8241.6720000000005</v>
+        <v>8303.1090000000004</v>
       </c>
       <c r="D136" s="2">
-        <v>0.77589852000000004</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.758985201</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>8330.7970000000005</v>
+        <v>8392.1869999999999</v>
       </c>
       <c r="B137" s="2">
-        <v>0.583510262</v>
+        <v>0.60120311400000004</v>
       </c>
       <c r="C137" s="2">
-        <v>8303.1090000000004</v>
+        <v>8364.5310000000009</v>
       </c>
       <c r="D137" s="2">
         <v>0.758985201</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>8392.1869999999999</v>
+        <v>8453.8590000000004</v>
       </c>
       <c r="B138" s="2">
-        <v>0.60120311400000004</v>
+        <v>0.583510262</v>
       </c>
       <c r="C138" s="2">
-        <v>8364.5310000000009</v>
+        <v>8426.2180000000008</v>
       </c>
       <c r="D138" s="2">
-        <v>0.758985201</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.73361522199999996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>8453.8590000000004</v>
+        <v>8515.375</v>
       </c>
       <c r="B139" s="2">
-        <v>0.583510262</v>
+        <v>0.56581740999999997</v>
       </c>
       <c r="C139" s="2">
-        <v>8426.2180000000008</v>
+        <v>8487.6720000000005</v>
       </c>
       <c r="D139" s="2">
-        <v>0.73361522199999996</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.74207188199999996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>8515.375</v>
+        <v>8576.9060000000009</v>
       </c>
       <c r="B140" s="2">
-        <v>0.56581740999999997</v>
+        <v>0.556970984</v>
       </c>
       <c r="C140" s="2">
-        <v>8487.6720000000005</v>
+        <v>8549.0470000000005</v>
       </c>
       <c r="D140" s="2">
-        <v>0.74207188199999996</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.70824524300000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>8576.9060000000009</v>
+        <v>8638.64</v>
       </c>
       <c r="B141" s="2">
-        <v>0.556970984</v>
+        <v>0.53927813199999997</v>
       </c>
       <c r="C141" s="2">
-        <v>8549.0470000000005</v>
+        <v>8610.4840000000004</v>
       </c>
       <c r="D141" s="2">
         <v>0.70824524300000002</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>8638.64</v>
+        <v>8700.0470000000005</v>
       </c>
       <c r="B142" s="2">
+        <v>0.54812455800000004</v>
+      </c>
+      <c r="C142" s="2">
+        <v>8672.125</v>
+      </c>
+      <c r="D142" s="2">
+        <v>0.68287526399999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>8761.5470000000005</v>
+      </c>
+      <c r="B143" s="2">
         <v>0.53927813199999997</v>
       </c>
-      <c r="C142" s="2">
-        <v>8610.4840000000004</v>
-      </c>
-      <c r="D142" s="2">
-        <v>0.70824524300000002</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>8700.0470000000005</v>
-      </c>
-      <c r="B143" s="2">
-        <v>0.54812455800000004</v>
-      </c>
       <c r="C143" s="2">
-        <v>8672.125</v>
+        <v>8733.5779999999995</v>
       </c>
       <c r="D143" s="2">
-        <v>0.68287526399999998</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.67441860499999995</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>8761.5470000000005</v>
+        <v>8823.1869999999999</v>
       </c>
       <c r="B144" s="2">
         <v>0.53927813199999997</v>
       </c>
       <c r="C144" s="2">
-        <v>8733.5779999999995</v>
+        <v>8795</v>
       </c>
       <c r="D144" s="2">
+        <v>0.64059196600000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>8884.7029999999995</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0.52158528000000004</v>
+      </c>
+      <c r="C145" s="2">
+        <v>8856.7180000000008</v>
+      </c>
+      <c r="D145" s="2">
         <v>0.67441860499999995</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
-        <v>8823.1869999999999</v>
-      </c>
-      <c r="B145" s="2">
-        <v>0.53927813199999997</v>
-      </c>
-      <c r="C145" s="2">
-        <v>8795</v>
-      </c>
-      <c r="D145" s="2">
-        <v>0.64059196600000001</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>8884.7029999999995</v>
+        <v>8946.1090000000004</v>
       </c>
       <c r="B146" s="2">
         <v>0.52158528000000004</v>
       </c>
       <c r="C146" s="2">
-        <v>8856.7180000000008</v>
+        <v>8918.1720000000005</v>
       </c>
       <c r="D146" s="2">
         <v>0.67441860499999995</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>8946.1090000000004</v>
+        <v>9007.8590000000004</v>
       </c>
       <c r="B147" s="2">
-        <v>0.52158528000000004</v>
+        <v>0.50389242700000003</v>
       </c>
       <c r="C147" s="2">
-        <v>8918.1720000000005</v>
+        <v>8979.5470000000005</v>
       </c>
       <c r="D147" s="2">
-        <v>0.67441860499999995</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.63213530699999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>9007.8590000000004</v>
+        <v>9069.375</v>
       </c>
       <c r="B148" s="2">
         <v>0.50389242700000003</v>
       </c>
       <c r="C148" s="2">
-        <v>8979.5470000000005</v>
+        <v>9041.0149999999994</v>
       </c>
       <c r="D148" s="2">
-        <v>0.63213530699999998</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.64904862600000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>9069.375</v>
+        <v>9130.75</v>
       </c>
       <c r="B149" s="2">
+        <v>0.52158528000000004</v>
+      </c>
+      <c r="C149" s="2">
+        <v>9102.5149999999994</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0.61522198699999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>9192.2649999999994</v>
+      </c>
+      <c r="B150" s="2">
         <v>0.50389242700000003</v>
       </c>
-      <c r="C149" s="2">
-        <v>9041.0149999999994</v>
-      </c>
-      <c r="D149" s="2">
-        <v>0.64904862600000002</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
-        <v>9130.75</v>
-      </c>
-      <c r="B150" s="2">
-        <v>0.52158528000000004</v>
-      </c>
       <c r="C150" s="2">
-        <v>9102.5149999999994</v>
+        <v>9163.9529999999995</v>
       </c>
       <c r="D150" s="2">
-        <v>0.61522198699999997</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.60676532800000005</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>9192.2649999999994</v>
+        <v>9253.875</v>
       </c>
       <c r="B151" s="2">
-        <v>0.50389242700000003</v>
+        <v>0.48619957499999999</v>
       </c>
       <c r="C151" s="2">
-        <v>9163.9529999999995</v>
+        <v>9225.3279999999995</v>
       </c>
       <c r="D151" s="2">
-        <v>0.60676532800000005</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.58985200800000004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>9253.875</v>
+        <v>9315.375</v>
       </c>
       <c r="B152" s="2">
+        <v>0.47735314899999998</v>
+      </c>
+      <c r="C152" s="2">
+        <v>9287.0470000000005</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0.59830866800000004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>9376.89</v>
+      </c>
+      <c r="B153" s="2">
         <v>0.48619957499999999</v>
       </c>
-      <c r="C152" s="2">
-        <v>9225.3279999999995</v>
-      </c>
-      <c r="D152" s="2">
-        <v>0.58985200800000004</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
-        <v>9315.375</v>
-      </c>
-      <c r="B153" s="2">
-        <v>0.47735314899999998</v>
-      </c>
       <c r="C153" s="2">
-        <v>9287.0470000000005</v>
+        <v>9348.5</v>
       </c>
       <c r="D153" s="2">
         <v>0.59830866800000004</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>9376.89</v>
+        <v>9438.5939999999991</v>
       </c>
       <c r="B154" s="2">
-        <v>0.48619957499999999</v>
+        <v>0.42427459299999998</v>
       </c>
       <c r="C154" s="2">
-        <v>9348.5</v>
+        <v>9409.9060000000009</v>
       </c>
       <c r="D154" s="2">
-        <v>0.59830866800000004</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.58139534900000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>9438.5939999999991</v>
+        <v>9499.9840000000004</v>
       </c>
       <c r="B155" s="2">
-        <v>0.42427459299999998</v>
+        <v>0.46850672300000001</v>
       </c>
       <c r="C155" s="2">
-        <v>9409.9060000000009</v>
+        <v>9471.3279999999995</v>
       </c>
       <c r="D155" s="2">
-        <v>0.58139534900000001</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.572938689</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>9499.9840000000004</v>
+        <v>9561.5149999999994</v>
       </c>
       <c r="B156" s="2">
+        <v>0.459660297</v>
+      </c>
+      <c r="C156" s="2">
+        <v>9532.9060000000009</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0.55602536999999996</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>9623.1720000000005</v>
+      </c>
+      <c r="B157" s="2">
         <v>0.46850672300000001</v>
       </c>
-      <c r="C156" s="2">
-        <v>9471.3279999999995</v>
-      </c>
-      <c r="D156" s="2">
-        <v>0.572938689</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
-        <v>9561.5149999999994</v>
-      </c>
-      <c r="B157" s="2">
-        <v>0.459660297</v>
-      </c>
       <c r="C157" s="2">
-        <v>9532.9060000000009</v>
+        <v>9594.39</v>
       </c>
       <c r="D157" s="2">
-        <v>0.55602536999999996</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.56448202999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>9623.1720000000005</v>
+        <v>9684.64</v>
       </c>
       <c r="B158" s="2">
-        <v>0.46850672300000001</v>
+        <v>0.45081387099999998</v>
       </c>
       <c r="C158" s="2">
-        <v>9594.39</v>
+        <v>9655.8430000000008</v>
       </c>
       <c r="D158" s="2">
-        <v>0.56448202999999997</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.54756870999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>9684.64</v>
+        <v>9746.1090000000004</v>
       </c>
       <c r="B159" s="2">
-        <v>0.45081387099999998</v>
+        <v>0.44196744500000001</v>
       </c>
       <c r="C159" s="2">
-        <v>9655.8430000000008</v>
+        <v>9717.5470000000005</v>
       </c>
       <c r="D159" s="2">
         <v>0.54756870999999996</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>9746.1090000000004</v>
+        <v>9807.8439999999991</v>
       </c>
       <c r="B160" s="2">
         <v>0.44196744500000001</v>
       </c>
       <c r="C160" s="2">
-        <v>9717.5470000000005</v>
+        <v>9779</v>
       </c>
       <c r="D160" s="2">
-        <v>0.54756870999999996</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.55602536999999996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>9807.8439999999991</v>
+        <v>9869.2970000000005</v>
       </c>
       <c r="B161" s="2">
-        <v>0.44196744500000001</v>
+        <v>0.39773531499999998</v>
       </c>
       <c r="C161" s="2">
-        <v>9779</v>
+        <v>9840.4220000000005</v>
       </c>
       <c r="D161" s="2">
-        <v>0.55602536999999996</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.53911205100000004</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>9869.2970000000005</v>
+        <v>9930.7970000000005</v>
       </c>
       <c r="B162" s="2">
+        <v>0.433121019</v>
+      </c>
+      <c r="C162" s="2">
+        <v>9901.9369999999999</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0.522198732</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>9992.5310000000009</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0.406581741</v>
+      </c>
+      <c r="C163" s="2">
+        <v>9963.5</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0.53065539100000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>10054.014999999999</v>
+      </c>
+      <c r="B164" s="2">
         <v>0.39773531499999998</v>
       </c>
-      <c r="C162" s="2">
-        <v>9840.4220000000005</v>
-      </c>
-      <c r="D162" s="2">
-        <v>0.53911205100000004</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <v>9930.7970000000005</v>
-      </c>
-      <c r="B163" s="2">
-        <v>0.433121019</v>
-      </c>
-      <c r="C163" s="2">
-        <v>9901.9369999999999</v>
-      </c>
-      <c r="D163" s="2">
-        <v>0.522198732</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
-        <v>9992.5310000000009</v>
-      </c>
-      <c r="B164" s="2">
+      <c r="C164" s="2">
+        <v>10024.89</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0.51374207199999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>10115.406000000001</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.42427459299999998</v>
+      </c>
+      <c r="C165" s="2">
+        <v>10086.312</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0.50528541199999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>10176.906000000001</v>
+      </c>
+      <c r="B166" s="2">
         <v>0.406581741</v>
       </c>
-      <c r="C164" s="2">
-        <v>9963.5</v>
-      </c>
-      <c r="D164" s="2">
-        <v>0.53065539100000003</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
-        <v>10054.014999999999</v>
-      </c>
-      <c r="B165" s="2">
+      <c r="C166" s="2">
+        <v>10147.953</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0.47145877400000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>10238.547</v>
+      </c>
+      <c r="B167" s="2">
         <v>0.39773531499999998</v>
       </c>
-      <c r="C165" s="2">
-        <v>10024.89</v>
-      </c>
-      <c r="D165" s="2">
-        <v>0.51374207199999999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
-        <v>10115.406000000001</v>
-      </c>
-      <c r="B166" s="2">
-        <v>0.42427459299999998</v>
-      </c>
-      <c r="C166" s="2">
-        <v>10086.312</v>
-      </c>
-      <c r="D166" s="2">
-        <v>0.50528541199999999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
-        <v>10176.906000000001</v>
-      </c>
-      <c r="B167" s="2">
-        <v>0.406581741</v>
-      </c>
       <c r="C167" s="2">
-        <v>10147.953</v>
+        <v>10209.484</v>
       </c>
       <c r="D167" s="2">
-        <v>0.47145877400000002</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.479915433</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>10238.547</v>
+        <v>10299.906000000001</v>
       </c>
       <c r="B168" s="2">
         <v>0.39773531499999998</v>
       </c>
       <c r="C168" s="2">
-        <v>10209.484</v>
+        <v>10270.906000000001</v>
       </c>
       <c r="D168" s="2">
-        <v>0.479915433</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.48837209300000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
-        <v>10299.906000000001</v>
+        <v>10361.312</v>
       </c>
       <c r="B169" s="2">
         <v>0.39773531499999998</v>
       </c>
       <c r="C169" s="2">
-        <v>10270.906000000001</v>
+        <v>10332.578</v>
       </c>
       <c r="D169" s="2">
+        <v>0.47145877400000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>10422.953</v>
+      </c>
+      <c r="B170" s="2">
+        <v>0.406581741</v>
+      </c>
+      <c r="C170" s="2">
+        <v>10394.014999999999</v>
+      </c>
+      <c r="D170" s="2">
         <v>0.48837209300000001</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>10361.312</v>
-      </c>
-      <c r="B170" s="2">
-        <v>0.39773531499999998</v>
-      </c>
-      <c r="C170" s="2">
-        <v>10332.578</v>
-      </c>
-      <c r="D170" s="2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>10484.453</v>
+      </c>
+      <c r="B171" s="2">
+        <v>0.380042463</v>
+      </c>
+      <c r="C171" s="2">
+        <v>10455.406000000001</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0.46300211400000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>10545.937</v>
+      </c>
+      <c r="B172" s="2">
+        <v>0.37119603699999998</v>
+      </c>
+      <c r="C172" s="2">
+        <v>10516.859</v>
+      </c>
+      <c r="D172" s="2">
         <v>0.47145877400000002</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>10422.953</v>
-      </c>
-      <c r="B171" s="2">
-        <v>0.406581741</v>
-      </c>
-      <c r="C171" s="2">
-        <v>10394.014999999999</v>
-      </c>
-      <c r="D171" s="2">
-        <v>0.48837209300000001</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>10484.453</v>
-      </c>
-      <c r="B172" s="2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>10607.437</v>
+      </c>
+      <c r="B173" s="2">
         <v>0.380042463</v>
       </c>
-      <c r="C172" s="2">
-        <v>10455.406000000001</v>
-      </c>
-      <c r="D172" s="2">
+      <c r="C173" s="2">
+        <v>10578.406000000001</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0.45454545499999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>10668.875</v>
+      </c>
+      <c r="B174" s="2">
+        <v>0.36234961100000002</v>
+      </c>
+      <c r="C174" s="2">
+        <v>10639.875</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0.41226215599999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>10730.375</v>
+      </c>
+      <c r="B175" s="2">
+        <v>0.37119603699999998</v>
+      </c>
+      <c r="C175" s="2">
+        <v>10701.312</v>
+      </c>
+      <c r="D175" s="2">
         <v>0.46300211400000002</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>10545.937</v>
-      </c>
-      <c r="B173" s="2">
-        <v>0.37119603699999998</v>
-      </c>
-      <c r="C173" s="2">
-        <v>10516.859</v>
-      </c>
-      <c r="D173" s="2">
-        <v>0.47145877400000002</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
-        <v>10607.437</v>
-      </c>
-      <c r="B174" s="2">
-        <v>0.380042463</v>
-      </c>
-      <c r="C174" s="2">
-        <v>10578.406000000001</v>
-      </c>
-      <c r="D174" s="2">
-        <v>0.45454545499999999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>10668.875</v>
-      </c>
-      <c r="B175" s="2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>10791.828</v>
+      </c>
+      <c r="B176" s="2">
+        <v>0.353503185</v>
+      </c>
+      <c r="C176" s="2">
+        <v>10763.109</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0.43763213499999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>10853.562</v>
+      </c>
+      <c r="B177" s="2">
         <v>0.36234961100000002</v>
       </c>
-      <c r="C175" s="2">
-        <v>10639.875</v>
-      </c>
-      <c r="D175" s="2">
-        <v>0.41226215599999999</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>10730.375</v>
-      </c>
-      <c r="B176" s="2">
-        <v>0.37119603699999998</v>
-      </c>
-      <c r="C176" s="2">
-        <v>10701.312</v>
-      </c>
-      <c r="D176" s="2">
-        <v>0.46300211400000002</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
-        <v>10791.828</v>
-      </c>
-      <c r="B177" s="2">
+      <c r="C177" s="2">
+        <v>10824.531000000001</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0.429175476</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>10914.984</v>
+      </c>
+      <c r="B178" s="2">
+        <v>0.34465675899999998</v>
+      </c>
+      <c r="C178" s="2">
+        <v>10885.922</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0.420718816</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>10976.468999999999</v>
+      </c>
+      <c r="B179" s="2">
         <v>0.353503185</v>
       </c>
-      <c r="C177" s="2">
-        <v>10763.109</v>
-      </c>
-      <c r="D177" s="2">
-        <v>0.43763213499999998</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
-        <v>10853.562</v>
-      </c>
-      <c r="B178" s="2">
-        <v>0.36234961100000002</v>
-      </c>
-      <c r="C178" s="2">
-        <v>10824.531000000001</v>
-      </c>
-      <c r="D178" s="2">
-        <v>0.429175476</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
-        <v>10914.984</v>
-      </c>
-      <c r="B179" s="2">
-        <v>0.34465675899999998</v>
-      </c>
       <c r="C179" s="2">
-        <v>10885.922</v>
+        <v>10947.297</v>
       </c>
       <c r="D179" s="2">
         <v>0.420718816</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>10976.468999999999</v>
+        <v>11038.187</v>
       </c>
       <c r="B180" s="2">
+        <v>0.326963907</v>
+      </c>
+      <c r="C180" s="2">
+        <v>11008.922</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0.36152219899999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>11099.672</v>
+      </c>
+      <c r="B181" s="2">
         <v>0.353503185</v>
       </c>
-      <c r="C180" s="2">
-        <v>10947.297</v>
-      </c>
-      <c r="D180" s="2">
-        <v>0.420718816</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
-        <v>11038.187</v>
-      </c>
-      <c r="B181" s="2">
-        <v>0.326963907</v>
-      </c>
       <c r="C181" s="2">
-        <v>11008.922</v>
+        <v>11070.406000000001</v>
       </c>
       <c r="D181" s="2">
-        <v>0.36152219899999999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.39534883700000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
-        <v>11099.672</v>
+        <v>11161.109</v>
       </c>
       <c r="B182" s="2">
-        <v>0.353503185</v>
+        <v>0.34465675899999998</v>
       </c>
       <c r="C182" s="2">
-        <v>11070.406000000001</v>
+        <v>11131.812</v>
       </c>
       <c r="D182" s="2">
-        <v>0.39534883700000001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.40380549700000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
-        <v>11161.109</v>
+        <v>11222.578</v>
       </c>
       <c r="B183" s="2">
         <v>0.34465675899999998</v>
       </c>
       <c r="C183" s="2">
-        <v>11131.812</v>
+        <v>11193.484</v>
       </c>
       <c r="D183" s="2">
+        <v>0.38689217799999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>11284.234</v>
+      </c>
+      <c r="B184" s="2">
+        <v>0.33581033300000002</v>
+      </c>
+      <c r="C184" s="2">
+        <v>11254.906000000001</v>
+      </c>
+      <c r="D184" s="2">
         <v>0.40380549700000001</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>11222.578</v>
-      </c>
-      <c r="B184" s="2">
-        <v>0.34465675899999998</v>
-      </c>
-      <c r="C184" s="2">
-        <v>11193.484</v>
-      </c>
-      <c r="D184" s="2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>11345.687</v>
+      </c>
+      <c r="B185" s="2">
+        <v>0.326963907</v>
+      </c>
+      <c r="C185" s="2">
+        <v>11316.437</v>
+      </c>
+      <c r="D185" s="2">
         <v>0.38689217799999998</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
-        <v>11284.234</v>
-      </c>
-      <c r="B185" s="2">
-        <v>0.33581033300000002</v>
-      </c>
-      <c r="C185" s="2">
-        <v>11254.906000000001</v>
-      </c>
-      <c r="D185" s="2">
-        <v>0.40380549700000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>11345.687</v>
+        <v>11407.109</v>
       </c>
       <c r="B186" s="2">
-        <v>0.326963907</v>
+        <v>0.30927105399999999</v>
       </c>
       <c r="C186" s="2">
-        <v>11316.437</v>
+        <v>11377.812</v>
       </c>
       <c r="D186" s="2">
-        <v>0.38689217799999998</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.35306553899999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
-        <v>11407.109</v>
+        <v>11468.828</v>
       </c>
       <c r="B187" s="2">
         <v>0.30927105399999999</v>
       </c>
       <c r="C187" s="2">
-        <v>11377.812</v>
+        <v>11439.375</v>
       </c>
       <c r="D187" s="2">
-        <v>0.35306553899999998</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.38689217799999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>11468.828</v>
+        <v>11530.297</v>
       </c>
       <c r="B188" s="2">
+        <v>0.31811748099999998</v>
+      </c>
+      <c r="C188" s="2">
+        <v>11500.797</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0.37843551800000003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>11591.734</v>
+      </c>
+      <c r="B189" s="2">
         <v>0.30927105399999999</v>
       </c>
-      <c r="C188" s="2">
-        <v>11439.375</v>
-      </c>
-      <c r="D188" s="2">
-        <v>0.38689217799999998</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
-        <v>11530.297</v>
-      </c>
-      <c r="B189" s="2">
-        <v>0.31811748099999998</v>
-      </c>
       <c r="C189" s="2">
-        <v>11500.797</v>
+        <v>11562.234</v>
       </c>
       <c r="D189" s="2">
-        <v>0.37843551800000003</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.36152219899999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>11591.734</v>
+        <v>11653.437</v>
       </c>
       <c r="B190" s="2">
         <v>0.30927105399999999</v>
       </c>
       <c r="C190" s="2">
-        <v>11562.234</v>
+        <v>11624.047</v>
       </c>
       <c r="D190" s="2">
-        <v>0.36152219899999999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.33615222</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
-        <v>11653.437</v>
+        <v>11714.906000000001</v>
       </c>
       <c r="B191" s="2">
-        <v>0.30927105399999999</v>
+        <v>0.31811748099999998</v>
       </c>
       <c r="C191" s="2">
-        <v>11624.047</v>
+        <v>11685.468000000001</v>
       </c>
       <c r="D191" s="2">
-        <v>0.33615222</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.35306553899999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
-        <v>11714.906000000001</v>
+        <v>11776.343999999999</v>
       </c>
       <c r="B192" s="2">
         <v>0.31811748099999998</v>
       </c>
       <c r="C192" s="2">
-        <v>11685.468000000001</v>
+        <v>11746.906000000001</v>
       </c>
       <c r="D192" s="2">
         <v>0.35306553899999998</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
-        <v>11776.343999999999</v>
+        <v>11838.078</v>
       </c>
       <c r="B193" s="2">
         <v>0.31811748099999998</v>
       </c>
       <c r="C193" s="2">
-        <v>11746.906000000001</v>
+        <v>11808.718000000001</v>
       </c>
       <c r="D193" s="2">
+        <v>0.33615222</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>11899.5</v>
+      </c>
+      <c r="B194" s="2">
+        <v>0.30927105399999999</v>
+      </c>
+      <c r="C194" s="2">
+        <v>11870.234</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0.32769556</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>11960.984</v>
+      </c>
+      <c r="B195" s="2">
+        <v>0.33581033300000002</v>
+      </c>
+      <c r="C195" s="2">
+        <v>11931.656000000001</v>
+      </c>
+      <c r="D195" s="2">
         <v>0.35306553899999998</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
-        <v>11838.078</v>
-      </c>
-      <c r="B194" s="2">
-        <v>0.31811748099999998</v>
-      </c>
-      <c r="C194" s="2">
-        <v>11808.718000000001</v>
-      </c>
-      <c r="D194" s="2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>12022.687</v>
+      </c>
+      <c r="B196" s="2">
+        <v>0.30927105399999999</v>
+      </c>
+      <c r="C196" s="2">
+        <v>11993.312</v>
+      </c>
+      <c r="D196" s="2">
         <v>0.33615222</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
-        <v>11899.5</v>
-      </c>
-      <c r="B195" s="2">
-        <v>0.30927105399999999</v>
-      </c>
-      <c r="C195" s="2">
-        <v>11870.234</v>
-      </c>
-      <c r="D195" s="2">
-        <v>0.32769556</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
-        <v>11960.984</v>
-      </c>
-      <c r="B196" s="2">
-        <v>0.33581033300000002</v>
-      </c>
-      <c r="C196" s="2">
-        <v>11931.656000000001</v>
-      </c>
-      <c r="D196" s="2">
-        <v>0.35306553899999998</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
-        <v>12022.687</v>
+        <v>12084.125</v>
       </c>
       <c r="B197" s="2">
-        <v>0.30927105399999999</v>
+        <v>0.30042462800000003</v>
       </c>
       <c r="C197" s="2">
-        <v>11993.312</v>
+        <v>12054.828</v>
       </c>
       <c r="D197" s="2">
         <v>0.33615222</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
-        <v>12084.125</v>
+        <v>12145.562</v>
       </c>
       <c r="B198" s="2">
         <v>0.30042462800000003</v>
       </c>
       <c r="C198" s="2">
-        <v>12054.828</v>
+        <v>12116.343000000001</v>
       </c>
       <c r="D198" s="2">
-        <v>0.33615222</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.32769556</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
-        <v>12145.562</v>
+        <v>12207.014999999999</v>
       </c>
       <c r="B199" s="2">
         <v>0.30042462800000003</v>
       </c>
       <c r="C199" s="2">
-        <v>12116.343000000001</v>
+        <v>12178</v>
       </c>
       <c r="D199" s="2">
         <v>0.32769556</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
-        <v>12207.014999999999</v>
+        <v>12268.593999999999</v>
       </c>
       <c r="B200" s="2">
+        <v>0.30927105399999999</v>
+      </c>
+      <c r="C200" s="2">
+        <v>12239.375</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0.31923890100000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>12330.078</v>
+      </c>
+      <c r="B201" s="2">
         <v>0.30042462800000003</v>
       </c>
-      <c r="C200" s="2">
-        <v>12178</v>
-      </c>
-      <c r="D200" s="2">
-        <v>0.32769556</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
-        <v>12268.593999999999</v>
-      </c>
-      <c r="B201" s="2">
+      <c r="C201" s="2">
+        <v>12300.764999999999</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0.31078224100000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>12391.547</v>
+      </c>
+      <c r="B202" s="2">
         <v>0.30927105399999999</v>
       </c>
-      <c r="C201" s="2">
-        <v>12239.375</v>
-      </c>
-      <c r="D201" s="2">
+      <c r="C202" s="2">
+        <v>12362.14</v>
+      </c>
+      <c r="D202" s="2">
         <v>0.31923890100000002</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
-        <v>12330.078</v>
-      </c>
-      <c r="B202" s="2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>12453.297</v>
+      </c>
+      <c r="B203" s="2">
         <v>0.30042462800000003</v>
       </c>
-      <c r="C202" s="2">
-        <v>12300.764999999999</v>
-      </c>
-      <c r="D202" s="2">
-        <v>0.31078224100000001</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
-        <v>12391.547</v>
-      </c>
-      <c r="B203" s="2">
-        <v>0.30927105399999999</v>
-      </c>
       <c r="C203" s="2">
-        <v>12362.14</v>
+        <v>12423.781000000001</v>
       </c>
       <c r="D203" s="2">
         <v>0.31923890100000002</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
-        <v>12453.297</v>
+        <v>12514.859</v>
       </c>
       <c r="B204" s="2">
+        <v>0.29157820200000001</v>
+      </c>
+      <c r="C204" s="2">
+        <v>12485.172</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0.31078224100000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>12576.297</v>
+      </c>
+      <c r="B205" s="2">
         <v>0.30042462800000003</v>
       </c>
-      <c r="C204" s="2">
-        <v>12423.781000000001</v>
-      </c>
-      <c r="D204" s="2">
-        <v>0.31923890100000002</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
-        <v>12514.859</v>
-      </c>
-      <c r="B205" s="2">
-        <v>0.29157820200000001</v>
-      </c>
       <c r="C205" s="2">
-        <v>12485.172</v>
+        <v>12546.656000000001</v>
       </c>
       <c r="D205" s="2">
-        <v>0.31078224100000001</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.30232558100000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
-        <v>12576.297</v>
+        <v>12638.047</v>
       </c>
       <c r="B206" s="2">
         <v>0.30042462800000003</v>
       </c>
       <c r="C206" s="2">
-        <v>12546.656000000001</v>
+        <v>12608.297</v>
       </c>
       <c r="D206" s="2">
+        <v>0.27695560299999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>12699.514999999999</v>
+      </c>
+      <c r="B207" s="2">
+        <v>0.29157820200000001</v>
+      </c>
+      <c r="C207" s="2">
+        <v>12669.764999999999</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0.243128964</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>12760.953</v>
+      </c>
+      <c r="B208" s="2">
+        <v>0.28273177599999999</v>
+      </c>
+      <c r="C208" s="2">
+        <v>12731.156000000001</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0.29386892199999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>12822.422</v>
+      </c>
+      <c r="B209" s="2">
+        <v>0.29157820200000001</v>
+      </c>
+      <c r="C209" s="2">
+        <v>12792.64</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0.28541226200000003</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>12883.984</v>
+      </c>
+      <c r="B210" s="2">
+        <v>0.28273177599999999</v>
+      </c>
+      <c r="C210" s="2">
+        <v>12854.297</v>
+      </c>
+      <c r="D210" s="2">
         <v>0.30232558100000001</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
-        <v>12638.047</v>
-      </c>
-      <c r="B207" s="2">
-        <v>0.30042462800000003</v>
-      </c>
-      <c r="C207" s="2">
-        <v>12608.297</v>
-      </c>
-      <c r="D207" s="2">
-        <v>0.27695560299999999</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
-        <v>12699.514999999999</v>
-      </c>
-      <c r="B208" s="2">
-        <v>0.29157820200000001</v>
-      </c>
-      <c r="C208" s="2">
-        <v>12669.764999999999</v>
-      </c>
-      <c r="D208" s="2">
-        <v>0.243128964</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
-        <v>12760.953</v>
-      </c>
-      <c r="B209" s="2">
-        <v>0.28273177599999999</v>
-      </c>
-      <c r="C209" s="2">
-        <v>12731.156000000001</v>
-      </c>
-      <c r="D209" s="2">
-        <v>0.29386892199999998</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
-        <v>12822.422</v>
-      </c>
-      <c r="B210" s="2">
-        <v>0.29157820200000001</v>
-      </c>
-      <c r="C210" s="2">
-        <v>12792.64</v>
-      </c>
-      <c r="D210" s="2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>12945.422</v>
+      </c>
+      <c r="B211" s="2">
+        <v>0.26503892400000001</v>
+      </c>
+      <c r="C211" s="2">
+        <v>12915.797</v>
+      </c>
+      <c r="D211" s="2">
         <v>0.28541226200000003</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
-        <v>12883.984</v>
-      </c>
-      <c r="B211" s="2">
-        <v>0.28273177599999999</v>
-      </c>
-      <c r="C211" s="2">
-        <v>12854.297</v>
-      </c>
-      <c r="D211" s="2">
-        <v>0.30232558100000001</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
-        <v>12945.422</v>
+        <v>13006.843999999999</v>
       </c>
       <c r="B212" s="2">
         <v>0.26503892400000001</v>
       </c>
       <c r="C212" s="2">
-        <v>12915.797</v>
+        <v>12977.172</v>
       </c>
       <c r="D212" s="2">
         <v>0.28541226200000003</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
-        <v>13006.843999999999</v>
+        <v>13068.578</v>
       </c>
       <c r="B213" s="2">
-        <v>0.26503892400000001</v>
+        <v>0.27388535000000003</v>
       </c>
       <c r="C213" s="2">
-        <v>12977.172</v>
+        <v>13038.968000000001</v>
       </c>
       <c r="D213" s="2">
-        <v>0.28541226200000003</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.27695560299999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
-        <v>13068.578</v>
+        <v>13130.014999999999</v>
       </c>
       <c r="B214" s="2">
-        <v>0.27388535000000003</v>
+        <v>0.28273177599999999</v>
       </c>
       <c r="C214" s="2">
-        <v>13038.968000000001</v>
+        <v>13100.343000000001</v>
       </c>
       <c r="D214" s="2">
-        <v>0.27695560299999999</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26849894299999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
-        <v>13130.014999999999</v>
+        <v>13191.453</v>
       </c>
       <c r="B215" s="2">
-        <v>0.28273177599999999</v>
+        <v>0.29157820200000001</v>
       </c>
       <c r="C215" s="2">
-        <v>13100.343000000001</v>
+        <v>13161.859</v>
       </c>
       <c r="D215" s="2">
         <v>0.26849894299999999</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
-        <v>13191.453</v>
+        <v>13253.031000000001</v>
       </c>
       <c r="B216" s="2">
-        <v>0.29157820200000001</v>
+        <v>0.28273177599999999</v>
       </c>
       <c r="C216" s="2">
-        <v>13161.859</v>
+        <v>13223.468000000001</v>
       </c>
       <c r="D216" s="2">
-        <v>0.26849894299999999</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.243128964</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
-        <v>13253.031000000001</v>
+        <v>13314.468999999999</v>
       </c>
       <c r="B217" s="2">
-        <v>0.28273177599999999</v>
+        <v>0.26503892400000001</v>
       </c>
       <c r="C217" s="2">
-        <v>13223.468000000001</v>
+        <v>13285</v>
       </c>
       <c r="D217" s="2">
-        <v>0.243128964</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.28541226200000003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
-        <v>13314.468999999999</v>
+        <v>13375.922</v>
       </c>
       <c r="B218" s="2">
         <v>0.26503892400000001</v>
       </c>
       <c r="C218" s="2">
-        <v>13285</v>
+        <v>13346.5</v>
       </c>
       <c r="D218" s="2">
-        <v>0.28541226200000003</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.27695560299999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
-        <v>13375.922</v>
+        <v>13437.375</v>
       </c>
       <c r="B219" s="2">
-        <v>0.26503892400000001</v>
+        <v>0.28273177599999999</v>
       </c>
       <c r="C219" s="2">
-        <v>13346.5</v>
+        <v>13408</v>
       </c>
       <c r="D219" s="2">
-        <v>0.27695560299999999</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26004228299999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
-        <v>13437.375</v>
+        <v>13499.203</v>
       </c>
       <c r="B220" s="2">
+        <v>0.23849964600000001</v>
+      </c>
+      <c r="C220" s="2">
+        <v>13469.484</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0.243128964</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>13560.672</v>
+      </c>
+      <c r="B221" s="2">
+        <v>0.27388535000000003</v>
+      </c>
+      <c r="C221" s="2">
+        <v>13530.968000000001</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0.26004228299999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>13622.109</v>
+      </c>
+      <c r="B222" s="2">
         <v>0.28273177599999999</v>
       </c>
-      <c r="C220" s="2">
-        <v>13408</v>
-      </c>
-      <c r="D220" s="2">
-        <v>0.26004228299999999</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
-        <v>13499.203</v>
-      </c>
-      <c r="B221" s="2">
-        <v>0.23849964600000001</v>
-      </c>
-      <c r="C221" s="2">
-        <v>13469.484</v>
-      </c>
-      <c r="D221" s="2">
-        <v>0.243128964</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
-        <v>13560.672</v>
-      </c>
-      <c r="B222" s="2">
+      <c r="C222" s="2">
+        <v>13592.343000000001</v>
+      </c>
+      <c r="D222" s="2">
+        <v>0.26849894299999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>13683.812</v>
+      </c>
+      <c r="B223" s="2">
         <v>0.27388535000000003</v>
       </c>
-      <c r="C222" s="2">
-        <v>13530.968000000001</v>
-      </c>
-      <c r="D222" s="2">
-        <v>0.26004228299999999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
-        <v>13622.109</v>
-      </c>
-      <c r="B223" s="2">
-        <v>0.28273177599999999</v>
-      </c>
       <c r="C223" s="2">
-        <v>13592.343000000001</v>
+        <v>13654.093000000001</v>
       </c>
       <c r="D223" s="2">
         <v>0.26849894299999999</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
-        <v>13683.812</v>
+        <v>13745.281000000001</v>
       </c>
       <c r="B224" s="2">
+        <v>0.28273177599999999</v>
+      </c>
+      <c r="C224" s="2">
+        <v>13715.547</v>
+      </c>
+      <c r="D224" s="2">
+        <v>0.243128964</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>13806.718999999999</v>
+      </c>
+      <c r="B225" s="2">
         <v>0.27388535000000003</v>
       </c>
-      <c r="C224" s="2">
-        <v>13654.093000000001</v>
-      </c>
-      <c r="D224" s="2">
-        <v>0.26849894299999999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
-        <v>13745.281000000001</v>
-      </c>
-      <c r="B225" s="2">
-        <v>0.28273177599999999</v>
-      </c>
       <c r="C225" s="2">
-        <v>13715.547</v>
+        <v>13777.014999999999</v>
       </c>
       <c r="D225" s="2">
-        <v>0.243128964</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.22621564499999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
-        <v>13806.718999999999</v>
+        <v>13868.156000000001</v>
       </c>
       <c r="B226" s="2">
-        <v>0.27388535000000003</v>
+        <v>0.26503892400000001</v>
       </c>
       <c r="C226" s="2">
-        <v>13777.014999999999</v>
+        <v>13838.437</v>
       </c>
       <c r="D226" s="2">
         <v>0.22621564499999999</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
-        <v>13868.156000000001</v>
+        <v>13929.89</v>
       </c>
       <c r="B227" s="2">
-        <v>0.26503892400000001</v>
+        <v>0.25619249799999999</v>
       </c>
       <c r="C227" s="2">
-        <v>13838.437</v>
+        <v>13900.109</v>
       </c>
       <c r="D227" s="2">
-        <v>0.22621564499999999</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.234672304</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
-        <v>13929.89</v>
+        <v>13991.343999999999</v>
       </c>
       <c r="B228" s="2">
         <v>0.25619249799999999</v>
       </c>
       <c r="C228" s="2">
-        <v>13900.109</v>
+        <v>13961.593000000001</v>
       </c>
       <c r="D228" s="2">
-        <v>0.234672304</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.243128964</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
-        <v>13991.343999999999</v>
+        <v>14052.937</v>
       </c>
       <c r="B229" s="2">
-        <v>0.25619249799999999</v>
+        <v>0.26503892400000001</v>
       </c>
       <c r="C229" s="2">
-        <v>13961.593000000001</v>
+        <v>14023.062</v>
       </c>
       <c r="D229" s="2">
-        <v>0.243128964</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.22621564499999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
-        <v>14052.937</v>
+        <v>14114.406000000001</v>
       </c>
       <c r="B230" s="2">
         <v>0.26503892400000001</v>
       </c>
       <c r="C230" s="2">
-        <v>14023.062</v>
+        <v>14084.656000000001</v>
       </c>
       <c r="D230" s="2">
-        <v>0.22621564499999999</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.20930232600000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
-        <v>14114.406000000001</v>
+        <v>14175.859</v>
       </c>
       <c r="B231" s="2">
         <v>0.26503892400000001</v>
       </c>
       <c r="C231" s="2">
-        <v>14084.656000000001</v>
+        <v>14146.156000000001</v>
       </c>
       <c r="D231" s="2">
-        <v>0.20930232600000001</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.243128964</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
-        <v>14175.859</v>
+        <v>14237.297</v>
       </c>
       <c r="B232" s="2">
         <v>0.26503892400000001</v>
       </c>
       <c r="C232" s="2">
-        <v>14146.156000000001</v>
+        <v>14207.64</v>
       </c>
       <c r="D232" s="2">
         <v>0.243128964</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
-        <v>14237.297</v>
+        <v>14299.062</v>
       </c>
       <c r="B233" s="2">
+        <v>0.25619249799999999</v>
+      </c>
+      <c r="C233" s="2">
+        <v>14269.39</v>
+      </c>
+      <c r="D233" s="2">
+        <v>0.25158562400000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>14360.5</v>
+      </c>
+      <c r="B234" s="2">
         <v>0.26503892400000001</v>
       </c>
-      <c r="C233" s="2">
-        <v>14207.64</v>
-      </c>
-      <c r="D233" s="2">
+      <c r="C234" s="2">
+        <v>14330.859</v>
+      </c>
+      <c r="D234" s="2">
+        <v>0.234672304</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>14421.937</v>
+      </c>
+      <c r="B235" s="2">
+        <v>0.23849964600000001</v>
+      </c>
+      <c r="C235" s="2">
+        <v>14392.218000000001</v>
+      </c>
+      <c r="D235" s="2">
         <v>0.243128964</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
-        <v>14299.062</v>
-      </c>
-      <c r="B234" s="2">
-        <v>0.25619249799999999</v>
-      </c>
-      <c r="C234" s="2">
-        <v>14269.39</v>
-      </c>
-      <c r="D234" s="2">
-        <v>0.25158562400000001</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
-        <v>14360.5</v>
-      </c>
-      <c r="B235" s="2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>14483.531000000001</v>
+      </c>
+      <c r="B236" s="2">
         <v>0.26503892400000001</v>
       </c>
-      <c r="C235" s="2">
-        <v>14330.859</v>
-      </c>
-      <c r="D235" s="2">
-        <v>0.234672304</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
-        <v>14421.937</v>
-      </c>
-      <c r="B236" s="2">
-        <v>0.23849964600000001</v>
-      </c>
       <c r="C236" s="2">
-        <v>14392.218000000001</v>
+        <v>14453.578</v>
       </c>
       <c r="D236" s="2">
         <v>0.243128964</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
-        <v>14483.531000000001</v>
+        <v>14544.984</v>
       </c>
       <c r="B237" s="2">
         <v>0.26503892400000001</v>
       </c>
       <c r="C237" s="2">
-        <v>14453.578</v>
+        <v>14515.203</v>
       </c>
       <c r="D237" s="2">
         <v>0.243128964</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
-        <v>14544.984</v>
+        <v>14606.406000000001</v>
       </c>
       <c r="B238" s="2">
-        <v>0.26503892400000001</v>
+        <v>0.25619249799999999</v>
       </c>
       <c r="C238" s="2">
-        <v>14515.203</v>
+        <v>14576.578</v>
       </c>
       <c r="D238" s="2">
         <v>0.243128964</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
-        <v>14606.406000000001</v>
+        <v>14667.828</v>
       </c>
       <c r="B239" s="2">
+        <v>0.247346072</v>
+      </c>
+      <c r="C239" s="2">
+        <v>14638.047</v>
+      </c>
+      <c r="D239" s="2">
+        <v>0.22621564499999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>14729.531000000001</v>
+      </c>
+      <c r="B240" s="2">
         <v>0.25619249799999999</v>
       </c>
-      <c r="C239" s="2">
-        <v>14576.578</v>
-      </c>
-      <c r="D239" s="2">
-        <v>0.243128964</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
-        <v>14667.828</v>
-      </c>
-      <c r="B240" s="2">
+      <c r="C240" s="2">
+        <v>14699.781000000001</v>
+      </c>
+      <c r="D240" s="2">
+        <v>0.21775898499999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>14790.984</v>
+      </c>
+      <c r="B241" s="2">
         <v>0.247346072</v>
       </c>
-      <c r="C240" s="2">
-        <v>14638.047</v>
-      </c>
-      <c r="D240" s="2">
-        <v>0.22621564499999999</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
-        <v>14729.531000000001</v>
-      </c>
-      <c r="B241" s="2">
-        <v>0.25619249799999999</v>
-      </c>
       <c r="C241" s="2">
-        <v>14699.781000000001</v>
+        <v>14763.375</v>
       </c>
       <c r="D241" s="2">
+        <v>0.234672304</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>14852.406000000001</v>
+      </c>
+      <c r="B242" s="2">
+        <v>0.26503892400000001</v>
+      </c>
+      <c r="C242" s="2">
+        <v>14834.875</v>
+      </c>
+      <c r="D242" s="2">
         <v>0.21775898499999999</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
-        <v>14790.984</v>
-      </c>
-      <c r="B242" s="2">
-        <v>0.247346072</v>
-      </c>
-      <c r="C242" s="2">
-        <v>14763.375</v>
-      </c>
-      <c r="D242" s="2">
-        <v>0.234672304</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
-        <v>14852.406000000001</v>
+        <v>14913.875</v>
       </c>
       <c r="B243" s="2">
-        <v>0.26503892400000001</v>
+        <v>0.23849964600000001</v>
       </c>
       <c r="C243" s="2">
-        <v>14834.875</v>
+        <v>14897.656000000001</v>
       </c>
       <c r="D243" s="2">
         <v>0.21775898499999999</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
-        <v>14913.875</v>
+        <v>14975.484</v>
       </c>
       <c r="B244" s="2">
-        <v>0.23849964600000001</v>
+        <v>0.26503892400000001</v>
       </c>
       <c r="C244" s="2">
-        <v>14897.656000000001</v>
+        <v>14959.281000000001</v>
       </c>
       <c r="D244" s="2">
-        <v>0.21775898499999999</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.234672304</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
-        <v>14975.484</v>
+        <v>15037.062</v>
       </c>
       <c r="B245" s="2">
         <v>0.26503892400000001</v>
       </c>
       <c r="C245" s="2">
-        <v>14959.281000000001</v>
+        <v>15020.906000000001</v>
       </c>
       <c r="D245" s="2">
+        <v>0.243128964</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>15098.453</v>
+      </c>
+      <c r="B246" s="2">
+        <v>0.23849964600000001</v>
+      </c>
+      <c r="C246" s="2">
+        <v>15082.359</v>
+      </c>
+      <c r="D246" s="2">
+        <v>0.21775898499999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>15160.203</v>
+      </c>
+      <c r="B247" s="2">
+        <v>0.26503892400000001</v>
+      </c>
+      <c r="C247" s="2">
+        <v>15143.859</v>
+      </c>
+      <c r="D247" s="2">
         <v>0.234672304</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
-        <v>15037.062</v>
-      </c>
-      <c r="B246" s="2">
-        <v>0.26503892400000001</v>
-      </c>
-      <c r="C246" s="2">
-        <v>15020.906000000001</v>
-      </c>
-      <c r="D246" s="2">
-        <v>0.243128964</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
-        <v>15098.453</v>
-      </c>
-      <c r="B247" s="2">
-        <v>0.23849964600000001</v>
-      </c>
-      <c r="C247" s="2">
-        <v>15082.359</v>
-      </c>
-      <c r="D247" s="2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>15221.672</v>
+      </c>
+      <c r="B248" s="2">
+        <v>0.247346072</v>
+      </c>
+      <c r="C248" s="2">
+        <v>15205.718000000001</v>
+      </c>
+      <c r="D248" s="2">
         <v>0.21775898499999999</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
-        <v>15160.203</v>
-      </c>
-      <c r="B248" s="2">
-        <v>0.26503892400000001</v>
-      </c>
-      <c r="C248" s="2">
-        <v>15143.859</v>
-      </c>
-      <c r="D248" s="2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>15283.14</v>
+      </c>
+      <c r="B249" s="2">
+        <v>0.25619249799999999</v>
+      </c>
+      <c r="C249" s="2">
+        <v>15267.203</v>
+      </c>
+      <c r="D249" s="2">
+        <v>0.22621564499999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>15344.828</v>
+      </c>
+      <c r="B250" s="2">
+        <v>0.247346072</v>
+      </c>
+      <c r="C250" s="2">
+        <v>15328.672</v>
+      </c>
+      <c r="D250" s="2">
+        <v>0.20084566600000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>15406.264999999999</v>
+      </c>
+      <c r="B251" s="2">
+        <v>0.220806794</v>
+      </c>
+      <c r="C251" s="2">
+        <v>15390.468000000001</v>
+      </c>
+      <c r="D251" s="2">
         <v>0.234672304</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
-        <v>15221.672</v>
-      </c>
-      <c r="B249" s="2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>15467.734</v>
+      </c>
+      <c r="B252" s="2">
         <v>0.247346072</v>
       </c>
-      <c r="C249" s="2">
-        <v>15205.718000000001</v>
-      </c>
-      <c r="D249" s="2">
-        <v>0.21775898499999999</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
-        <v>15283.14</v>
-      </c>
-      <c r="B250" s="2">
-        <v>0.25619249799999999</v>
-      </c>
-      <c r="C250" s="2">
-        <v>15267.203</v>
-      </c>
-      <c r="D250" s="2">
-        <v>0.22621564499999999</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
-        <v>15344.828</v>
-      </c>
-      <c r="B251" s="2">
-        <v>0.247346072</v>
-      </c>
-      <c r="C251" s="2">
-        <v>15328.672</v>
-      </c>
-      <c r="D251" s="2">
-        <v>0.20084566600000001</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
-        <v>15406.264999999999</v>
-      </c>
-      <c r="B252" s="2">
-        <v>0.220806794</v>
-      </c>
       <c r="C252" s="2">
-        <v>15390.468000000001</v>
+        <v>15452.062</v>
       </c>
       <c r="D252" s="2">
-        <v>0.234672304</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.20930232600000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
-        <v>15467.734</v>
+        <v>15529.453</v>
       </c>
       <c r="B253" s="2">
         <v>0.247346072</v>
       </c>
       <c r="C253" s="2">
-        <v>15452.062</v>
+        <v>15513.547</v>
       </c>
       <c r="D253" s="2">
         <v>0.20930232600000001</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
-        <v>15529.453</v>
+        <v>15590.89</v>
       </c>
       <c r="B254" s="2">
-        <v>0.247346072</v>
+        <v>0.220806794</v>
       </c>
       <c r="C254" s="2">
-        <v>15513.547</v>
+        <v>15575.218000000001</v>
       </c>
       <c r="D254" s="2">
         <v>0.20930232600000001</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
-        <v>15590.89</v>
+        <v>15652.343999999999</v>
       </c>
       <c r="B255" s="2">
-        <v>0.220806794</v>
+        <v>0.23849964600000001</v>
       </c>
       <c r="C255" s="2">
-        <v>15575.218000000001</v>
+        <v>15636.734</v>
       </c>
       <c r="D255" s="2">
+        <v>0.234672304</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>15713.812</v>
+      </c>
+      <c r="B256" s="2">
+        <v>0.247346072</v>
+      </c>
+      <c r="C256" s="2">
+        <v>15698.343000000001</v>
+      </c>
+      <c r="D256" s="2">
         <v>0.20930232600000001</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
-        <v>15652.343999999999</v>
-      </c>
-      <c r="B256" s="2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>15775.453</v>
+      </c>
+      <c r="B257" s="2">
         <v>0.23849964600000001</v>
       </c>
-      <c r="C256" s="2">
-        <v>15636.734</v>
-      </c>
-      <c r="D256" s="2">
+      <c r="C257" s="2">
+        <v>15760.125</v>
+      </c>
+      <c r="D257" s="2">
         <v>0.234672304</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
-        <v>15713.812</v>
-      </c>
-      <c r="B257" s="2">
-        <v>0.247346072</v>
-      </c>
-      <c r="C257" s="2">
-        <v>15698.343000000001</v>
-      </c>
-      <c r="D257" s="2">
-        <v>0.20930232600000001</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
-        <v>15775.453</v>
+        <v>15836.89</v>
       </c>
       <c r="B258" s="2">
+        <v>0.25619249799999999</v>
+      </c>
+      <c r="C258" s="2">
+        <v>15821.593000000001</v>
+      </c>
+      <c r="D258" s="2">
+        <v>0.21775898499999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>15898.343999999999</v>
+      </c>
+      <c r="B259" s="2">
         <v>0.23849964600000001</v>
       </c>
-      <c r="C258" s="2">
-        <v>15760.125</v>
-      </c>
-      <c r="D258" s="2">
-        <v>0.234672304</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
-        <v>15836.89</v>
-      </c>
-      <c r="B259" s="2">
-        <v>0.25619249799999999</v>
-      </c>
       <c r="C259" s="2">
-        <v>15821.593000000001</v>
+        <v>15883.218000000001</v>
       </c>
       <c r="D259" s="2">
         <v>0.21775898499999999</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
-        <v>15898.343999999999</v>
+        <v>15960.078</v>
       </c>
       <c r="B260" s="2">
-        <v>0.23849964600000001</v>
+        <v>0.247346072</v>
       </c>
       <c r="C260" s="2">
-        <v>15883.218000000001</v>
+        <v>15944.937</v>
       </c>
       <c r="D260" s="2">
         <v>0.21775898499999999</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
-        <v>15960.078</v>
+        <v>16021.547</v>
       </c>
       <c r="B261" s="2">
         <v>0.247346072</v>
       </c>
       <c r="C261" s="2">
-        <v>15944.937</v>
+        <v>16006.453</v>
       </c>
       <c r="D261" s="2">
+        <v>0.234672304</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>16083.14</v>
+      </c>
+      <c r="B262" s="2">
+        <v>0.23849964600000001</v>
+      </c>
+      <c r="C262" s="2">
+        <v>16067.906000000001</v>
+      </c>
+      <c r="D262" s="2">
+        <v>0.20930232600000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>16144.843999999999</v>
+      </c>
+      <c r="B263" s="2">
+        <v>0.247346072</v>
+      </c>
+      <c r="C263" s="2">
+        <v>16129.656000000001</v>
+      </c>
+      <c r="D263" s="2">
         <v>0.21775898499999999</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
-        <v>16021.547</v>
-      </c>
-      <c r="B262" s="2">
-        <v>0.247346072</v>
-      </c>
-      <c r="C262" s="2">
-        <v>16006.453</v>
-      </c>
-      <c r="D262" s="2">
-        <v>0.234672304</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
-        <v>16083.14</v>
-      </c>
-      <c r="B263" s="2">
-        <v>0.23849964600000001</v>
-      </c>
-      <c r="C263" s="2">
-        <v>16067.906000000001</v>
-      </c>
-      <c r="D263" s="2">
-        <v>0.20930232600000001</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
-        <v>16144.843999999999</v>
+        <v>16206.297</v>
       </c>
       <c r="B264" s="2">
         <v>0.247346072</v>
       </c>
       <c r="C264" s="2">
-        <v>16129.656000000001</v>
+        <v>16191.156000000001</v>
       </c>
       <c r="D264" s="2">
         <v>0.21775898499999999</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
-        <v>16206.297</v>
+        <v>16267.75</v>
       </c>
       <c r="B265" s="2">
-        <v>0.247346072</v>
+        <v>0.23849964600000001</v>
       </c>
       <c r="C265" s="2">
-        <v>16191.156000000001</v>
+        <v>16252.625</v>
       </c>
       <c r="D265" s="2">
-        <v>0.21775898499999999</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.20084566600000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
-        <v>16267.75</v>
+        <v>16329.484</v>
       </c>
       <c r="B266" s="2">
+        <v>0.25619249799999999</v>
+      </c>
+      <c r="C266" s="2">
+        <v>16314.406000000001</v>
+      </c>
+      <c r="D266" s="2">
+        <v>0.20930232600000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>16391.030999999999</v>
+      </c>
+      <c r="B267" s="2">
         <v>0.23849964600000001</v>
       </c>
-      <c r="C266" s="2">
-        <v>16252.625</v>
-      </c>
-      <c r="D266" s="2">
-        <v>0.20084566600000001</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
-        <v>16329.484</v>
-      </c>
-      <c r="B267" s="2">
-        <v>0.25619249799999999</v>
-      </c>
       <c r="C267" s="2">
-        <v>16314.406000000001</v>
+        <v>16375.906000000001</v>
       </c>
       <c r="D267" s="2">
-        <v>0.20930232600000001</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.22621564499999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
-        <v>16391.030999999999</v>
+        <v>16452.594000000001</v>
       </c>
       <c r="B268" s="2">
         <v>0.23849964600000001</v>
       </c>
       <c r="C268" s="2">
-        <v>16375.906000000001</v>
+        <v>16437.359</v>
       </c>
       <c r="D268" s="2">
-        <v>0.22621564499999999</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.183932347</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
-        <v>16452.594000000001</v>
+        <v>16514.328000000001</v>
       </c>
       <c r="B269" s="2">
         <v>0.23849964600000001</v>
       </c>
       <c r="C269" s="2">
-        <v>16437.359</v>
+        <v>16499.155999999999</v>
       </c>
       <c r="D269" s="2">
-        <v>0.183932347</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.21775898499999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
-        <v>16514.328000000001</v>
+        <v>16575.75</v>
       </c>
       <c r="B270" s="2">
+        <v>0.247346072</v>
+      </c>
+      <c r="C270" s="2">
+        <v>16560.64</v>
+      </c>
+      <c r="D270" s="2">
+        <v>0.20084566600000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>16637.296999999999</v>
+      </c>
+      <c r="B271" s="2">
+        <v>0.220806794</v>
+      </c>
+      <c r="C271" s="2">
+        <v>16622.125</v>
+      </c>
+      <c r="D271" s="2">
+        <v>0.192389006</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
+        <v>16699.014999999999</v>
+      </c>
+      <c r="B272" s="2">
         <v>0.23849964600000001</v>
       </c>
-      <c r="C270" s="2">
-        <v>16499.155999999999</v>
-      </c>
-      <c r="D270" s="2">
-        <v>0.21775898499999999</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
-        <v>16575.75</v>
-      </c>
-      <c r="B271" s="2">
-        <v>0.247346072</v>
-      </c>
-      <c r="C271" s="2">
-        <v>16560.64</v>
-      </c>
-      <c r="D271" s="2">
-        <v>0.20084566600000001</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
-        <v>16637.296999999999</v>
-      </c>
-      <c r="B272" s="2">
-        <v>0.220806794</v>
-      </c>
       <c r="C272" s="2">
-        <v>16622.125</v>
+        <v>16683.875</v>
       </c>
       <c r="D272" s="2">
         <v>0.192389006</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
-        <v>16699.014999999999</v>
+        <v>16760.453000000001</v>
       </c>
       <c r="B273" s="2">
-        <v>0.23849964600000001</v>
+        <v>0.22965321999999999</v>
       </c>
       <c r="C273" s="2">
-        <v>16683.875</v>
+        <v>16745.343000000001</v>
       </c>
       <c r="D273" s="2">
         <v>0.192389006</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
-        <v>16760.453000000001</v>
+        <v>16821.89</v>
       </c>
       <c r="B274" s="2">
+        <v>0.23849964600000001</v>
+      </c>
+      <c r="C274" s="2">
+        <v>16806.859</v>
+      </c>
+      <c r="D274" s="2">
+        <v>0.20930232600000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="2">
+        <v>16883.344000000001</v>
+      </c>
+      <c r="B275" s="2">
         <v>0.22965321999999999</v>
       </c>
-      <c r="C274" s="2">
-        <v>16745.343000000001</v>
-      </c>
-      <c r="D274" s="2">
+      <c r="C275" s="2">
+        <v>16868.625</v>
+      </c>
+      <c r="D275" s="2">
         <v>0.192389006</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
-        <v>16821.89</v>
-      </c>
-      <c r="B275" s="2">
-        <v>0.23849964600000001</v>
-      </c>
-      <c r="C275" s="2">
-        <v>16806.859</v>
-      </c>
-      <c r="D275" s="2">
-        <v>0.20930232600000001</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
-        <v>16883.344000000001</v>
+        <v>16944.953000000001</v>
       </c>
       <c r="B276" s="2">
         <v>0.22965321999999999</v>
       </c>
       <c r="C276" s="2">
-        <v>16868.625</v>
+        <v>16930.109</v>
       </c>
       <c r="D276" s="2">
         <v>0.192389006</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
-        <v>16944.953000000001</v>
+        <v>17006.39</v>
       </c>
       <c r="B277" s="2">
         <v>0.22965321999999999</v>
       </c>
       <c r="C277" s="2">
-        <v>16930.109</v>
+        <v>16991.609</v>
       </c>
       <c r="D277" s="2">
         <v>0.192389006</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
-        <v>17006.39</v>
+        <v>17067.844000000001</v>
       </c>
       <c r="B278" s="2">
-        <v>0.22965321999999999</v>
+        <v>0.247346072</v>
       </c>
       <c r="C278" s="2">
-        <v>16991.609</v>
+        <v>17053.359</v>
       </c>
       <c r="D278" s="2">
-        <v>0.192389006</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.183932347</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
-        <v>17067.844000000001</v>
+        <v>17129.594000000001</v>
       </c>
       <c r="B279" s="2">
-        <v>0.247346072</v>
+        <v>0.23849964600000001</v>
       </c>
       <c r="C279" s="2">
-        <v>17053.359</v>
+        <v>17114.843000000001</v>
       </c>
       <c r="D279" s="2">
-        <v>0.183932347</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.20084566600000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
-        <v>17129.594000000001</v>
+        <v>17191.030999999999</v>
       </c>
       <c r="B280" s="2">
         <v>0.23849964600000001</v>
       </c>
       <c r="C280" s="2">
-        <v>17114.843000000001</v>
+        <v>17176.328000000001</v>
       </c>
       <c r="D280" s="2">
-        <v>0.20084566600000001</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.192389006</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
-        <v>17191.030999999999</v>
+        <v>17252.453000000001</v>
       </c>
       <c r="B281" s="2">
-        <v>0.23849964600000001</v>
+        <v>0.22965321999999999</v>
       </c>
       <c r="C281" s="2">
-        <v>17176.328000000001</v>
+        <v>17237.953000000001</v>
       </c>
       <c r="D281" s="2">
         <v>0.192389006</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
-        <v>17252.453000000001</v>
+        <v>17313.937000000002</v>
       </c>
       <c r="B282" s="2">
+        <v>0.247346072</v>
+      </c>
+      <c r="C282" s="2">
+        <v>17299.343000000001</v>
+      </c>
+      <c r="D282" s="2">
+        <v>0.20084566600000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="2">
+        <v>17375.578000000001</v>
+      </c>
+      <c r="B283" s="2">
         <v>0.22965321999999999</v>
       </c>
-      <c r="C282" s="2">
-        <v>17237.953000000001</v>
-      </c>
-      <c r="D282" s="2">
-        <v>0.192389006</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="2">
-        <v>17313.937000000002</v>
-      </c>
-      <c r="B283" s="2">
-        <v>0.247346072</v>
-      </c>
       <c r="C283" s="2">
-        <v>17299.343000000001</v>
+        <v>17360.796999999999</v>
       </c>
       <c r="D283" s="2">
-        <v>0.20084566600000001</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.183932347</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
-        <v>17375.578000000001</v>
+        <v>17437.046999999999</v>
       </c>
       <c r="B284" s="2">
         <v>0.22965321999999999</v>
       </c>
       <c r="C284" s="2">
-        <v>17360.796999999999</v>
+        <v>17422.280999999999</v>
       </c>
       <c r="D284" s="2">
-        <v>0.183932347</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.20084566600000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
-        <v>17437.046999999999</v>
+        <v>17498.578000000001</v>
       </c>
       <c r="B285" s="2">
-        <v>0.22965321999999999</v>
+        <v>0.21196036800000001</v>
       </c>
       <c r="C285" s="2">
-        <v>17422.280999999999</v>
+        <v>17483.921999999999</v>
       </c>
       <c r="D285" s="2">
         <v>0.20084566600000001</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
-        <v>17498.578000000001</v>
+        <v>17560.264999999999</v>
       </c>
       <c r="B286" s="2">
-        <v>0.21196036800000001</v>
+        <v>0.220806794</v>
       </c>
       <c r="C286" s="2">
-        <v>17483.921999999999</v>
+        <v>17545.296999999999</v>
       </c>
       <c r="D286" s="2">
+        <v>0.192389006</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
+        <v>17621.719000000001</v>
+      </c>
+      <c r="B287" s="2">
+        <v>0.23849964600000001</v>
+      </c>
+      <c r="C287" s="2">
+        <v>17606.780999999999</v>
+      </c>
+      <c r="D287" s="2">
         <v>0.20084566600000001</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
-        <v>17560.264999999999</v>
-      </c>
-      <c r="B287" s="2">
-        <v>0.220806794</v>
-      </c>
-      <c r="C287" s="2">
-        <v>17545.296999999999</v>
-      </c>
-      <c r="D287" s="2">
-        <v>0.192389006</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
-        <v>17621.719000000001</v>
+        <v>17683.171999999999</v>
       </c>
       <c r="B288" s="2">
         <v>0.23849964600000001</v>
       </c>
       <c r="C288" s="2">
-        <v>17606.780999999999</v>
+        <v>17668.562000000002</v>
       </c>
       <c r="D288" s="2">
-        <v>0.20084566600000001</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.192389006</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
-        <v>17683.171999999999</v>
+        <v>17744.937000000002</v>
       </c>
       <c r="B289" s="2">
-        <v>0.23849964600000001</v>
+        <v>0.14118896</v>
       </c>
       <c r="C289" s="2">
-        <v>17668.562000000002</v>
+        <v>17730.030999999999</v>
       </c>
       <c r="D289" s="2">
-        <v>0.192389006</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.16701902699999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
-        <v>17744.937000000002</v>
+        <v>17806.375</v>
       </c>
       <c r="B290" s="2">
-        <v>0.14118896</v>
+        <v>0.220806794</v>
       </c>
       <c r="C290" s="2">
-        <v>17730.030999999999</v>
+        <v>17791.5</v>
       </c>
       <c r="D290" s="2">
-        <v>0.16701902699999999</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.17547568699999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
-        <v>17806.375</v>
+        <v>17867.828000000001</v>
       </c>
       <c r="B291" s="2">
         <v>0.220806794</v>
       </c>
       <c r="C291" s="2">
-        <v>17791.5</v>
+        <v>17853.25</v>
       </c>
       <c r="D291" s="2">
-        <v>0.17547568699999999</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.183932347</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
-        <v>17867.828000000001</v>
+        <v>17929.562000000002</v>
       </c>
       <c r="B292" s="2">
-        <v>0.220806794</v>
+        <v>0.23849964600000001</v>
       </c>
       <c r="C292" s="2">
-        <v>17853.25</v>
+        <v>17914.734</v>
       </c>
       <c r="D292" s="2">
-        <v>0.183932347</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.192389006</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
-        <v>17929.562000000002</v>
+        <v>17991.125</v>
       </c>
       <c r="B293" s="2">
         <v>0.23849964600000001</v>
       </c>
       <c r="C293" s="2">
-        <v>17914.734</v>
+        <v>17976.218000000001</v>
       </c>
       <c r="D293" s="2">
         <v>0.192389006</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
-        <v>17991.125</v>
+        <v>18052.546999999999</v>
       </c>
       <c r="B294" s="2">
         <v>0.23849964600000001</v>
       </c>
       <c r="C294" s="2">
-        <v>17976.218000000001</v>
+        <v>18037.953000000001</v>
       </c>
       <c r="D294" s="2">
-        <v>0.192389006</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.183932347</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
-        <v>18052.546999999999</v>
+        <v>18114.764999999999</v>
       </c>
       <c r="B295" s="2">
         <v>0.23849964600000001</v>
       </c>
       <c r="C295" s="2">
-        <v>18037.953000000001</v>
+        <v>18099.796999999999</v>
       </c>
       <c r="D295" s="2">
+        <v>0.15856236800000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
+        <v>18176.187000000002</v>
+      </c>
+      <c r="B296" s="2">
+        <v>0.22965321999999999</v>
+      </c>
+      <c r="C296" s="2">
+        <v>18161.296999999999</v>
+      </c>
+      <c r="D296" s="2">
+        <v>0.20084566600000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="2">
+        <v>18237.655999999999</v>
+      </c>
+      <c r="B297" s="2">
+        <v>0.23849964600000001</v>
+      </c>
+      <c r="C297" s="2">
+        <v>18223.014999999999</v>
+      </c>
+      <c r="D297" s="2">
+        <v>0.16701902699999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
+        <v>18299.375</v>
+      </c>
+      <c r="B298" s="2">
+        <v>0.25619249799999999</v>
+      </c>
+      <c r="C298" s="2">
+        <v>18284.484</v>
+      </c>
+      <c r="D298" s="2">
+        <v>0.17547568699999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
+        <v>18360.828000000001</v>
+      </c>
+      <c r="B299" s="2">
+        <v>0.220806794</v>
+      </c>
+      <c r="C299" s="2">
+        <v>18345.984</v>
+      </c>
+      <c r="D299" s="2">
         <v>0.183932347</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
-        <v>18114.764999999999</v>
-      </c>
-      <c r="B296" s="2">
-        <v>0.23849964600000001</v>
-      </c>
-      <c r="C296" s="2">
-        <v>18099.796999999999</v>
-      </c>
-      <c r="D296" s="2">
-        <v>0.15856236800000001</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
-        <v>18176.187000000002</v>
-      </c>
-      <c r="B297" s="2">
-        <v>0.22965321999999999</v>
-      </c>
-      <c r="C297" s="2">
-        <v>18161.296999999999</v>
-      </c>
-      <c r="D297" s="2">
-        <v>0.20084566600000001</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="2">
-        <v>18237.655999999999</v>
-      </c>
-      <c r="B298" s="2">
-        <v>0.23849964600000001</v>
-      </c>
-      <c r="C298" s="2">
-        <v>18223.014999999999</v>
-      </c>
-      <c r="D298" s="2">
-        <v>0.16701902699999999</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="2">
-        <v>18299.375</v>
-      </c>
-      <c r="B299" s="2">
-        <v>0.25619249799999999</v>
-      </c>
-      <c r="C299" s="2">
-        <v>18284.484</v>
-      </c>
-      <c r="D299" s="2">
-        <v>0.17547568699999999</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
-        <v>18360.828000000001</v>
+        <v>18422.264999999999</v>
       </c>
       <c r="B300" s="2">
         <v>0.220806794</v>
       </c>
       <c r="C300" s="2">
-        <v>18345.984</v>
+        <v>18407.562000000002</v>
       </c>
       <c r="D300" s="2">
-        <v>0.183932347</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.17547568699999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
-        <v>18422.264999999999</v>
+        <v>18483.969000000001</v>
       </c>
       <c r="B301" s="2">
-        <v>0.220806794</v>
+        <v>0.22965321999999999</v>
       </c>
       <c r="C301" s="2">
-        <v>18407.562000000002</v>
+        <v>18469.062000000002</v>
       </c>
       <c r="D301" s="2">
-        <v>0.17547568699999999</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.20084566600000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
-        <v>18483.969000000001</v>
+        <v>18545.39</v>
       </c>
       <c r="B302" s="2">
         <v>0.22965321999999999</v>
       </c>
       <c r="C302" s="2">
-        <v>18469.062000000002</v>
+        <v>18530.5</v>
       </c>
       <c r="D302" s="2">
-        <v>0.20084566600000001</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.17547568699999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
-        <v>18545.39</v>
+        <v>18606.937000000002</v>
       </c>
       <c r="B303" s="2">
         <v>0.22965321999999999</v>
       </c>
       <c r="C303" s="2">
-        <v>18530.5</v>
+        <v>18592.14</v>
       </c>
       <c r="D303" s="2">
+        <v>0.192389006</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="2">
+        <v>18668.625</v>
+      </c>
+      <c r="B304" s="2">
+        <v>0.220806794</v>
+      </c>
+      <c r="C304" s="2">
+        <v>18653.609</v>
+      </c>
+      <c r="D304" s="2">
         <v>0.17547568699999999</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="2">
-        <v>18606.937000000002</v>
-      </c>
-      <c r="B304" s="2">
-        <v>0.22965321999999999</v>
-      </c>
-      <c r="C304" s="2">
-        <v>18592.14</v>
-      </c>
-      <c r="D304" s="2">
-        <v>0.192389006</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
-        <v>18668.625</v>
+        <v>18730.187000000002</v>
       </c>
       <c r="B305" s="2">
-        <v>0.220806794</v>
+        <v>0.21196036800000001</v>
       </c>
       <c r="C305" s="2">
-        <v>18653.609</v>
+        <v>18715.078000000001</v>
       </c>
       <c r="D305" s="2">
         <v>0.17547568699999999</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
-        <v>18730.187000000002</v>
+        <v>18791.719000000001</v>
       </c>
       <c r="B306" s="2">
-        <v>0.21196036800000001</v>
+        <v>0.20311394199999999</v>
       </c>
       <c r="C306" s="2">
-        <v>18715.078000000001</v>
+        <v>18776.530999999999</v>
       </c>
       <c r="D306" s="2">
         <v>0.17547568699999999</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
-        <v>18791.719000000001</v>
+        <v>18853.453000000001</v>
       </c>
       <c r="B307" s="2">
-        <v>0.20311394199999999</v>
+        <v>0.220806794</v>
       </c>
       <c r="C307" s="2">
-        <v>18776.530999999999</v>
+        <v>18838.014999999999</v>
       </c>
       <c r="D307" s="2">
-        <v>0.17547568699999999</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.16701902699999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
-        <v>18853.453000000001</v>
+        <v>18914.905999999999</v>
       </c>
       <c r="B308" s="2">
         <v>0.220806794</v>
       </c>
       <c r="C308" s="2">
-        <v>18838.014999999999</v>
+        <v>18899.484</v>
       </c>
       <c r="D308" s="2">
         <v>0.16701902699999999</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
-        <v>18914.905999999999</v>
+        <v>18976.296999999999</v>
       </c>
       <c r="B309" s="2">
-        <v>0.220806794</v>
+        <v>0.21196036800000001</v>
       </c>
       <c r="C309" s="2">
-        <v>18899.484</v>
+        <v>18960.953000000001</v>
       </c>
       <c r="D309" s="2">
         <v>0.16701902699999999</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
-        <v>18976.296999999999</v>
+        <v>19037.719000000001</v>
       </c>
       <c r="B310" s="2">
         <v>0.21196036800000001</v>
       </c>
       <c r="C310" s="2">
-        <v>18960.953000000001</v>
+        <v>19022.734</v>
       </c>
       <c r="D310" s="2">
         <v>0.16701902699999999</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
-        <v>19037.719000000001</v>
+        <v>19099.312000000002</v>
       </c>
       <c r="B311" s="2">
-        <v>0.21196036800000001</v>
+        <v>0.220806794</v>
       </c>
       <c r="C311" s="2">
-        <v>19022.734</v>
+        <v>19084.155999999999</v>
       </c>
       <c r="D311" s="2">
         <v>0.16701902699999999</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
-        <v>19099.312000000002</v>
+        <v>19160.719000000001</v>
       </c>
       <c r="B312" s="2">
-        <v>0.220806794</v>
+        <v>0.20311394199999999</v>
       </c>
       <c r="C312" s="2">
-        <v>19084.155999999999</v>
+        <v>19145.609</v>
       </c>
       <c r="D312" s="2">
         <v>0.16701902699999999</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
-        <v>19160.719000000001</v>
+        <v>19222.155999999999</v>
       </c>
       <c r="B313" s="2">
-        <v>0.20311394199999999</v>
-      </c>
-      <c r="C313" s="2">
-        <v>19145.609</v>
-      </c>
-      <c r="D313" s="2">
-        <v>0.16701902699999999</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.21196036800000001</v>
+      </c>
+      <c r="C313" s="2"/>
+      <c r="D313" s="2"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
-        <v>19222.155999999999</v>
+        <v>19283.984</v>
       </c>
       <c r="B314" s="2">
-        <v>0.21196036800000001</v>
+        <v>0.22965321999999999</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="2">
-        <v>19283.984</v>
-      </c>
-      <c r="B315" s="2">
-        <v>0.22965321999999999</v>
-      </c>
-      <c r="C315" s="2"/>
-      <c r="D315" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8818,46 +8804,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1" s="6">
         <v>2.9769066260885974E-4</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -8880,14 +8866,14 @@
         <v>8.8593353918793117E-8</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H2" s="8">
         <f>RSQ(D2:D102,E2:E102)</f>
         <v>0.99929534149316379</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>192.99</v>
       </c>
@@ -8910,7 +8896,7 @@
         <v>1.0721660960537004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>384.98</v>
       </c>
@@ -8933,7 +8919,7 @@
         <v>5.9747064501010415E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>576.97</v>
       </c>
@@ -8956,7 +8942,7 @@
         <v>4.9694420125656418E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>768.96</v>
       </c>
@@ -8979,7 +8965,7 @@
         <v>4.6717771543878383E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>960.95</v>
       </c>
@@ -9002,7 +8988,7 @@
         <v>5.2567733064190719E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1152.94</v>
       </c>
@@ -9025,7 +9011,7 @@
         <v>3.5198621337875107E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1344.93</v>
       </c>
@@ -9048,7 +9034,7 @@
         <v>2.2166523924802405E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1536.92</v>
       </c>
@@ -9071,7 +9057,7 @@
         <v>2.0853427696062242E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1728.91</v>
       </c>
@@ -9094,7 +9080,7 @@
         <v>1.9969758071724096E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1920.9</v>
       </c>
@@ -9117,7 +9103,7 @@
         <v>2.1133753170769266E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2112.89</v>
       </c>
@@ -9140,7 +9126,7 @@
         <v>1.2665492818883696E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2304.88</v>
       </c>
@@ -9163,7 +9149,7 @@
         <v>7.1795722519280339E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2496.87</v>
       </c>
@@ -9186,7 +9172,7 @@
         <v>7.4208699044859655E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2688.86</v>
       </c>
@@ -9209,7 +9195,7 @@
         <v>3.1842389228271445E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2880.85</v>
       </c>
@@ -9232,7 +9218,7 @@
         <v>4.5071805710642873E-7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>3072.84</v>
       </c>
@@ -9255,7 +9241,7 @@
         <v>3.4330362823739482E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>3264.83</v>
       </c>
@@ -9278,7 +9264,7 @@
         <v>4.8764985008995683E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>3456.82</v>
       </c>
@@ -9301,7 +9287,7 @@
         <v>2.8904684298132315E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>3648.81</v>
       </c>
@@ -9324,7 +9310,7 @@
         <v>1.2490917330639508E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>3840.8</v>
       </c>
@@ -9347,7 +9333,7 @@
         <v>2.1404053940791179E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>4032.79</v>
       </c>
@@ -9370,7 +9356,7 @@
         <v>2.1337280951715613E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>4224.78</v>
       </c>
@@ -9393,7 +9379,7 @@
         <v>3.1389220942047475E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>4416.7700000000004</v>
       </c>
@@ -9416,7 +9402,7 @@
         <v>3.7796893234169087E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>4608.76</v>
       </c>
@@ -9439,7 +9425,7 @@
         <v>1.421510417705325E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>4800.75</v>
       </c>
@@ -9462,7 +9448,7 @@
         <v>1.6523187477095294E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>4992.74</v>
       </c>
@@ -9485,7 +9471,7 @@
         <v>6.1455642901321237E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>5184.7299999999996</v>
       </c>
@@ -9508,7 +9494,7 @@
         <v>1.3936469868717832E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>5376.72</v>
       </c>
@@ -9531,7 +9517,7 @@
         <v>1.1161485318944251E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>5568.71</v>
       </c>
@@ -9554,7 +9540,7 @@
         <v>7.991222322867753E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>5760.7</v>
       </c>
@@ -9577,7 +9563,7 @@
         <v>6.0488946023858359E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>5952.69</v>
       </c>
@@ -9600,7 +9586,7 @@
         <v>7.4216673290072074E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>6144.68</v>
       </c>
@@ -9623,7 +9609,7 @@
         <v>1.1993657409156983E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>6336.67</v>
       </c>
@@ -9646,7 +9632,7 @@
         <v>1.2688429572540894E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>6528.66</v>
       </c>
@@ -9669,7 +9655,7 @@
         <v>8.4003775727976973E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>6720.65</v>
       </c>
@@ -9692,7 +9678,7 @@
         <v>4.4607966031993381E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>6912.64</v>
       </c>
@@ -9715,7 +9701,7 @@
         <v>6.4329555364452926E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>7104.63</v>
       </c>
@@ -9738,7 +9724,7 @@
         <v>8.7888005154876698E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>7296.62</v>
       </c>
@@ -9761,7 +9747,7 @@
         <v>1.7885476506566886E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>7488.61</v>
       </c>
@@ -9784,7 +9770,7 @@
         <v>9.5403437964960598E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>7680.6</v>
       </c>
@@ -9807,7 +9793,7 @@
         <v>1.8200157153376259E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>7872.59</v>
       </c>
@@ -9830,7 +9816,7 @@
         <v>1.4811012021705909E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>8064.58</v>
       </c>
@@ -9853,7 +9839,7 @@
         <v>1.1659318865158888E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>8256.57</v>
       </c>
@@ -9876,7 +9862,7 @@
         <v>7.1037120733785468E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>8448.56</v>
       </c>
@@ -9899,7 +9885,7 @@
         <v>5.7222074462149156E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>8640.5499999999993</v>
       </c>
@@ -9922,7 +9908,7 @@
         <v>1.5914509713561171E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>8832.5400000000009</v>
       </c>
@@ -9945,7 +9931,7 @@
         <v>2.219566630919357E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>9024.5300000000007</v>
       </c>
@@ -9968,7 +9954,7 @@
         <v>1.6841376831062987E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>9216.52</v>
       </c>
@@ -9991,7 +9977,7 @@
         <v>5.541537721322801E-6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>9408.51</v>
       </c>
@@ -10014,7 +10000,7 @@
         <v>9.5522258281352702E-7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>9600.5</v>
       </c>
@@ -10037,7 +10023,7 @@
         <v>1.2873705678569655E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>9792.49</v>
       </c>
@@ -10060,7 +10046,7 @@
         <v>1.3090979681072082E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>9984.48</v>
       </c>
@@ -10083,7 +10069,7 @@
         <v>1.1666028827296076E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>10176.469999999999</v>
       </c>
@@ -10106,7 +10092,7 @@
         <v>1.0317292511181013E-6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>10368.459999999999</v>
       </c>
@@ -10129,7 +10115,7 @@
         <v>2.2042259493371437E-6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>10560.45</v>
       </c>
@@ -10152,7 +10138,7 @@
         <v>1.6336976992117715E-7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>10752.44</v>
       </c>
@@ -10175,7 +10161,7 @@
         <v>1.8473715542573197E-7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>10944.43</v>
       </c>
@@ -10198,7 +10184,7 @@
         <v>2.7176104645898249E-6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>11136.42</v>
       </c>
@@ -10221,7 +10207,7 @@
         <v>1.625138607254907E-6</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>11328.41</v>
       </c>
@@ -10244,7 +10230,7 @@
         <v>9.5556760796728423E-6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>11520.4</v>
       </c>
@@ -10267,7 +10253,7 @@
         <v>9.3322593046805293E-6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>11712.39</v>
       </c>
@@ -10290,7 +10276,7 @@
         <v>9.1412059580257613E-6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>11904.38</v>
       </c>
@@ -10313,7 +10299,7 @@
         <v>8.8348837210411747E-6</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>12096.37</v>
       </c>
@@ -10336,7 +10322,7 @@
         <v>1.1924377265455761E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>12288.36</v>
       </c>
@@ -10360,7 +10346,7 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>12480.35</v>
       </c>
@@ -10383,7 +10369,7 @@
         <v>6.9874552060418739E-6</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>12672.34</v>
       </c>
@@ -10406,7 +10392,7 @@
         <v>5.7397703008520327E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>12864.33</v>
       </c>
@@ -10429,7 +10415,7 @@
         <v>4.6233964570406981E-6</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>13056.32</v>
       </c>
@@ -10452,7 +10438,7 @@
         <v>2.0566911442956389E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>13248.31</v>
       </c>
@@ -10475,7 +10461,7 @@
         <v>1.3582084825012065E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>13440.3</v>
       </c>
@@ -10498,7 +10484,7 @@
         <v>1.3780732767008665E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>13632.29</v>
       </c>
@@ -10521,7 +10507,7 @@
         <v>1.0305442381441071E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>13824.28</v>
       </c>
@@ -10544,7 +10530,7 @@
         <v>2.4351150075992684E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>14016.27</v>
       </c>
@@ -10567,7 +10553,7 @@
         <v>2.4370799019502904E-5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>14208.26</v>
       </c>
@@ -10590,7 +10576,7 @@
         <v>4.7242382457884591E-6</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>14400.25</v>
       </c>
@@ -10613,7 +10599,7 @@
         <v>8.8700257868611783E-6</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>14592.24</v>
       </c>
@@ -10636,7 +10622,7 @@
         <v>2.7160552375602524E-6</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>14784.23</v>
       </c>
@@ -10659,7 +10645,7 @@
         <v>7.3049728996012896E-6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>14976.22</v>
       </c>
@@ -10682,7 +10668,7 @@
         <v>4.8416069015567626E-8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>15168.21</v>
       </c>
@@ -10705,7 +10691,7 @@
         <v>3.7186163928407874E-8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>15360.2</v>
       </c>
@@ -10728,7 +10714,7 @@
         <v>6.6090111651084214E-6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>15552.19</v>
       </c>
@@ -10751,7 +10737,7 @@
         <v>9.7140397011358628E-6</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>15744.18</v>
       </c>
@@ -10774,7 +10760,7 @@
         <v>9.1953815765946809E-8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>15936.17</v>
       </c>
@@ -10797,7 +10783,7 @@
         <v>4.539210158108376E-7</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>16128.16</v>
       </c>
@@ -10820,7 +10806,7 @@
         <v>1.2906529540823641E-8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>16320.15</v>
       </c>
@@ -10843,7 +10829,7 @@
         <v>2.7104437156001715E-7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>16512.14</v>
       </c>
@@ -10866,7 +10852,7 @@
         <v>2.0639671896343241E-8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>16704.13</v>
       </c>
@@ -10889,7 +10875,7 @@
         <v>3.390931618954375E-6</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>16896.12</v>
       </c>
@@ -10912,7 +10898,7 @@
         <v>4.9097748154676577E-6</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>17088.11</v>
       </c>
@@ -10935,7 +10921,7 @@
         <v>1.3412207312445197E-7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>17280.099999999999</v>
       </c>
@@ -10958,7 +10944,7 @@
         <v>4.9793012340816079E-8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>17472.09</v>
       </c>
@@ -10981,7 +10967,7 @@
         <v>1.7868864205611632E-6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>17664.080000000002</v>
       </c>
@@ -11004,7 +10990,7 @@
         <v>2.5302037305304259E-11</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>17856.07</v>
       </c>
@@ -11027,7 +11013,7 @@
         <v>4.7167684578936322E-6</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>18048.060000000001</v>
       </c>
@@ -11050,7 +11036,7 @@
         <v>4.4711485796873223E-7</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>18240.05</v>
       </c>
@@ -11073,7 +11059,7 @@
         <v>1.7458050835087477E-6</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>18432.04</v>
       </c>
@@ -11096,7 +11082,7 @@
         <v>1.3197858823862353E-6</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>18624.03</v>
       </c>
@@ -11119,7 +11105,7 @@
         <v>4.0280296291595811E-7</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>18816.02</v>
       </c>
@@ -11142,7 +11128,7 @@
         <v>1.0805525048303863E-5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>19008.009999999998</v>
       </c>
@@ -11165,7 +11151,7 @@
         <v>1.0167146308184991E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>19200</v>
       </c>
@@ -11188,850 +11174,850 @@
         <v>1.0850260769837509E-5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="E103" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F103" s="7">
         <f>SUM(F2:F102)</f>
         <v>6.6589099786598617E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
     </row>

--- a/EAula06ex2PlanilhaDuplicata.xlsx
+++ b/EAula06ex2PlanilhaDuplicata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A391B8-845C-4268-8037-218CF01428A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FECB84C-78DB-4180-90C1-AECDD2BE5FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,13 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -4396,7 +4393,7 @@
   <dimension ref="A1:D314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4407,17 +4404,17 @@
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8804,7 +8801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J312"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -8833,10 +8830,10 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>2.9769066260885974E-4</v>
       </c>
       <c r="J1" t="s">
@@ -8865,10 +8862,10 @@
         <f>(D2-E2)^2</f>
         <v>8.8593353918793117E-8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <f>RSQ(D2:D102,E2:E102)</f>
         <v>0.99929534149316379</v>
       </c>
@@ -10329,7 +10326,7 @@
       <c r="B66" s="2">
         <v>0.30946000000000001</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>4.2900000000000004E-3</v>
       </c>
       <c r="D66" s="1">
@@ -10344,7 +10341,7 @@
         <f t="shared" si="2"/>
         <v>9.3201627204483765E-6</v>
       </c>
-      <c r="G66" s="4"/>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
@@ -10856,7 +10853,7 @@
       <c r="A89" s="2">
         <v>16704.13</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="4">
         <v>0.21507999999999999</v>
       </c>
       <c r="C89">
@@ -10879,7 +10876,7 @@
       <c r="A90" s="2">
         <v>16896.12</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="4">
         <v>0.21102000000000001</v>
       </c>
       <c r="C90">
@@ -10902,7 +10899,7 @@
       <c r="A91" s="2">
         <v>17088.11</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="4">
         <v>0.21897</v>
       </c>
       <c r="C91">
@@ -10925,7 +10922,7 @@
       <c r="A92" s="2">
         <v>17280.099999999999</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="4">
         <v>0.21790000000000001</v>
       </c>
       <c r="C92">
@@ -10948,7 +10945,7 @@
       <c r="A93" s="2">
         <v>17472.09</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="4">
         <v>0.21021000000000001</v>
       </c>
       <c r="C93">
@@ -10971,7 +10968,7 @@
       <c r="A94" s="2">
         <v>17664.080000000002</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="4">
         <v>0.21575</v>
       </c>
       <c r="C94">
@@ -10994,7 +10991,7 @@
       <c r="A95" s="2">
         <v>17856.07</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="4">
         <v>0.20255999999999999</v>
       </c>
       <c r="C95">
@@ -11017,7 +11014,7 @@
       <c r="A96" s="2">
         <v>18048.060000000001</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="4">
         <v>0.20913999999999999</v>
       </c>
       <c r="C96">
@@ -11040,7 +11037,7 @@
       <c r="A97" s="2">
         <v>18240.05</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="4">
         <v>0.20427000000000001</v>
       </c>
       <c r="C97">
@@ -11063,7 +11060,7 @@
       <c r="A98" s="2">
         <v>18432.04</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="4">
         <v>0.20388999999999999</v>
       </c>
       <c r="C98">
@@ -11086,7 +11083,7 @@
       <c r="A99" s="2">
         <v>18624.03</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="4">
         <v>0.20541000000000001</v>
       </c>
       <c r="C99">
@@ -11109,7 +11106,7 @@
       <c r="A100" s="2">
         <v>18816.02</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="4">
         <v>0.19006000000000001</v>
       </c>
       <c r="C100">
@@ -11180,7 +11177,7 @@
       <c r="E103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="6">
         <f>SUM(F2:F102)</f>
         <v>6.6589099786598617E-3</v>
       </c>
